--- a/docs/Oficial/estudantes_ficticios_corrigido_modelo.xlsx
+++ b/docs/Oficial/estudantes_ficticios_corrigido_modelo.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/696b7a661993207c/Documents/GitHub/ministry-hub-sync/docs/Oficial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{2A8126F0-E242-44A5-A5D8-D6530F4DCE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D782F0FC-7742-433A-A19B-B5DE0AA215EC}"/>
+  <xr:revisionPtr revIDLastSave="81" documentId="8_{2A8126F0-E242-44A5-A5D8-D6530F4DCE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98615D6-F441-47B9-B49A-B1954C593EDE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Planilha1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Planilha1!$A$1:$L$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AH$102</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -23,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2767" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2889" uniqueCount="453">
   <si>
     <t>user_id</t>
   </si>
@@ -1367,6 +1369,21 @@
   </si>
   <si>
     <t>Orlando Silva</t>
+  </si>
+  <si>
+    <t>ordem</t>
+  </si>
+  <si>
+    <t>pioneira_regular</t>
+  </si>
+  <si>
+    <t>publicadora_batizada</t>
+  </si>
+  <si>
+    <t>estudante_nova</t>
+  </si>
+  <si>
+    <t>publicadora_nao_batizada</t>
   </si>
 </sst>
 </file>
@@ -1671,44 +1688,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:AH101"/>
+    <sheetView topLeftCell="I85" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J93" sqref="J93:AG93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="26" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="31.5703125" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="21.42578125" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="22" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="45" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="45" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="45.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="44.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="24" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="30" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="19.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="37.7109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="15" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
@@ -1817,41 +1833,41 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>59</v>
+        <v>277</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E2" s="2">
-        <f ca="1">DATEDIF(AH2,TODAY(),"Y")</f>
-        <v>73</v>
+        <f t="shared" ref="E2:E33" ca="1" si="0">DATEDIF(AH2,TODAY(),"Y")</f>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="I2" s="3">
-        <v>40556</v>
+        <v>43372</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>445</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>41</v>
@@ -1860,13 +1876,16 @@
         <v>41</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>444</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
+      <c r="S2" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="T2" s="2" t="s">
         <v>441</v>
       </c>
@@ -1874,16 +1893,16 @@
         <v>442</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>441</v>
@@ -1901,49 +1920,49 @@
         <v>441</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH2" s="3">
-        <v>19239</v>
+        <v>25079</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>44</v>
+        <v>287</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>288</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2">
-        <f ca="1">DATEDIF(AH3,TODAY(),"Y")</f>
-        <v>13</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>47</v>
+        <v>289</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>48</v>
+        <v>290</v>
       </c>
       <c r="I3" s="3">
-        <v>43229</v>
+        <v>43315</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>49</v>
+        <v>281</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>41</v>
@@ -1952,40 +1971,34 @@
         <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>253</v>
+        <v>442</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB3" s="2" t="s">
         <v>441</v>
@@ -2003,49 +2016,49 @@
         <v>441</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH3" s="3">
-        <v>41139</v>
+        <v>29094</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>35</v>
+        <v>119</v>
       </c>
       <c r="E4" s="2">
-        <f ca="1">DATEDIF(AH4,TODAY(),"Y")</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>32</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="I4" s="3">
-        <v>41040</v>
+        <v>35230</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>41</v>
@@ -2057,13 +2070,13 @@
         <v>42</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
-        <v>53</v>
-      </c>
+      <c r="R4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
         <v>441</v>
       </c>
@@ -2071,19 +2084,19 @@
         <v>442</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>441</v>
@@ -2098,49 +2111,49 @@
         <v>441</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH4" s="3">
-        <v>25809</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>330</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>246</v>
+        <v>325</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2">
-        <f ca="1">DATEDIF(AH5,TODAY(),"Y")</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>49</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="I5" s="3">
-        <v>39285</v>
+        <v>38660</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>41</v>
@@ -2152,15 +2165,12 @@
         <v>64</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R5" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S5" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="R5" s="2"/>
       <c r="T5" s="2" t="s">
         <v>441</v>
       </c>
@@ -2168,19 +2178,19 @@
         <v>442</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>441</v>
@@ -2195,49 +2205,49 @@
         <v>441</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH5" s="3">
-        <v>26174</v>
+        <v>27977</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>249</v>
+        <v>328</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>250</v>
+        <v>133</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2">
-        <f ca="1">DATEDIF(AH6,TODAY(),"Y")</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>251</v>
+        <v>134</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
       <c r="I6" s="3">
-        <v>42711</v>
+        <v>33286</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>86</v>
+        <v>445</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -2249,15 +2259,12 @@
         <v>64</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S6" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="R6" s="2"/>
       <c r="T6" s="2" t="s">
         <v>441</v>
       </c>
@@ -2265,19 +2272,19 @@
         <v>442</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC6" s="2" t="s">
         <v>441</v>
@@ -2292,49 +2299,49 @@
         <v>441</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH6" s="3">
-        <v>32014</v>
+        <v>36759</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>345</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>349</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>35</v>
+        <v>142</v>
       </c>
       <c r="E7" s="2">
-        <f ca="1">DATEDIF(AH7,TODAY(),"Y")</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>37</v>
+        <v>351</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>38</v>
+        <v>352</v>
       </c>
       <c r="I7" s="3">
-        <v>32592</v>
+        <v>43942</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>40</v>
+        <v>445</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>41</v>
@@ -2346,15 +2353,14 @@
         <v>64</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>53</v>
+        <v>332</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S7" s="2"/>
+        <v>140</v>
+      </c>
       <c r="T7" s="2" t="s">
         <v>441</v>
       </c>
@@ -2362,19 +2368,19 @@
         <v>442</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>441</v>
@@ -2389,10 +2395,10 @@
         <v>441</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH7" s="3">
-        <v>36394</v>
+        <v>32744</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -2400,38 +2406,38 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="2">
-        <f ca="1">DATEDIF(AH8,TODAY(),"Y")</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>73</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="I8" s="3">
-        <v>36784</v>
+        <v>40556</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M8" s="2" t="s">
         <v>41</v>
@@ -2440,16 +2446,13 @@
         <v>41</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>71</v>
+        <v>444</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
-      <c r="S8" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="T8" s="2" t="s">
         <v>441</v>
       </c>
@@ -2484,10 +2487,10 @@
         <v>441</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH8" s="3">
-        <v>36394</v>
+        <v>19239</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -2495,38 +2498,38 @@
         <v>58</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>240</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>241</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E9" s="2">
-        <f ca="1">DATEDIF(AH9,TODAY(),"Y")</f>
-        <v>23</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>242</v>
+        <v>47</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
       <c r="I9" s="3">
-        <v>33341</v>
+        <v>43229</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="K9" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M9" s="2" t="s">
         <v>41</v>
@@ -2546,12 +2549,17 @@
       <c r="R9" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="S9" s="2"/>
       <c r="T9" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="W9" s="2" t="s">
+        <v>253</v>
       </c>
       <c r="X9" s="2" t="s">
         <v>442</v>
@@ -2566,10 +2574,10 @@
         <v>442</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD9" s="2" t="s">
         <v>441</v>
@@ -2578,13 +2586,13 @@
         <v>441</v>
       </c>
       <c r="AF9" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG9" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH9" s="3">
-        <v>37489</v>
+        <v>41139</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
@@ -2592,38 +2600,38 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="2">
-        <f ca="1">DATEDIF(AH10,TODAY(),"Y")</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="I10" s="3">
-        <v>33800</v>
+        <v>41747</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>41</v>
@@ -2632,12 +2640,17 @@
         <v>41</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="S10" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T10" s="2" t="s">
         <v>441</v>
       </c>
@@ -2675,7 +2688,7 @@
         <v>442</v>
       </c>
       <c r="AH10" s="3">
-        <v>18874</v>
+        <v>34934</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -2683,38 +2696,38 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="2">
-        <f ca="1">DATEDIF(AH11,TODAY(),"Y")</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="I11" s="3">
-        <v>29855</v>
+        <v>43660</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>41</v>
@@ -2723,19 +2736,28 @@
         <v>41</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="2" t="s">
         <v>267</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>442</v>
@@ -2765,49 +2787,49 @@
         <v>441</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH11" s="3">
-        <v>26904</v>
+        <v>40774</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E12" s="2">
-        <f ca="1">DATEDIF(AH12,TODAY(),"Y")</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="I12" s="3">
-        <v>42665</v>
+        <v>44157</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>41</v>
@@ -2816,15 +2838,16 @@
         <v>41</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>441</v>
@@ -2863,46 +2886,46 @@
         <v>442</v>
       </c>
       <c r="AH12" s="3">
-        <v>26904</v>
+        <v>29094</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>282</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>87</v>
+        <v>291</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>83</v>
+        <v>292</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2">
-        <f ca="1">DATEDIF(AH13,TODAY(),"Y")</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>293</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>88</v>
+        <v>294</v>
       </c>
       <c r="I13" s="3">
-        <v>43399</v>
+        <v>39355</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>41</v>
@@ -2917,16 +2940,17 @@
         <v>77</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>65</v>
+        <v>277</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="S13" s="2"/>
       <c r="T13" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>442</v>
@@ -2959,40 +2983,40 @@
         <v>442</v>
       </c>
       <c r="AH13" s="3">
-        <v>34207</v>
+        <v>39679</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">DATEDIF(AH14,TODAY(),"Y")</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>24</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="I14" s="3">
-        <v>33364</v>
+        <v>44363</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>441</v>
@@ -3010,16 +3034,14 @@
         <v>64</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="S14" s="2"/>
       <c r="T14" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>442</v>
@@ -3037,7 +3059,7 @@
         <v>442</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>441</v>
@@ -3055,40 +3077,40 @@
         <v>442</v>
       </c>
       <c r="AH14" s="3">
-        <v>33474</v>
+        <v>37124</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>82</v>
+        <v>340</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>341</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E15" s="2">
-        <f ca="1">DATEDIF(AH15,TODAY(),"Y")</f>
+        <f t="shared" ca="1" si="0"/>
         <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>85</v>
+        <v>342</v>
       </c>
       <c r="I15" s="3">
-        <v>36682</v>
+        <v>43445</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>441</v>
@@ -3103,17 +3125,18 @@
         <v>41</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="S15" s="2"/>
       <c r="T15" s="2" t="s">
         <v>441</v>
       </c>
@@ -3156,32 +3179,32 @@
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>72</v>
+        <v>345</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>263</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>264</v>
+        <v>150</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E16" s="2">
-        <f ca="1">DATEDIF(AH16,TODAY(),"Y")</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>48</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>265</v>
+        <v>151</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>266</v>
+        <v>152</v>
       </c>
       <c r="I16" s="3">
-        <v>41747</v>
+        <v>43546</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>49</v>
@@ -3199,16 +3222,16 @@
         <v>41</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>65</v>
+        <v>332</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>267</v>
+        <v>140</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>441</v>
@@ -3229,7 +3252,7 @@
         <v>442</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>441</v>
@@ -3247,46 +3270,46 @@
         <v>442</v>
       </c>
       <c r="AH16" s="3">
-        <v>34934</v>
+        <v>28364</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>72</v>
+        <v>355</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>259</v>
+        <v>163</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>260</v>
+        <v>164</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>67</v>
+        <v>156</v>
       </c>
       <c r="E17" s="2">
-        <f ca="1">DATEDIF(AH17,TODAY(),"Y")</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>261</v>
+        <v>165</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>262</v>
+        <v>166</v>
       </c>
       <c r="I17" s="3">
-        <v>40048</v>
+        <v>37460</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>41</v>
@@ -3298,14 +3321,12 @@
         <v>64</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="R17" s="2"/>
       <c r="T17" s="2" t="s">
         <v>441</v>
       </c>
@@ -3325,7 +3346,7 @@
         <v>442</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>441</v>
@@ -3343,37 +3364,37 @@
         <v>442</v>
       </c>
       <c r="AH17" s="3">
-        <v>36029</v>
+        <v>34936</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>72</v>
+        <v>201</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>78</v>
+        <v>416</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>67</v>
+        <v>197</v>
       </c>
       <c r="E18" s="2">
-        <f ca="1">DATEDIF(AH18,TODAY(),"Y")</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="I18" s="3">
-        <v>43660</v>
+        <v>45226</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>49</v>
@@ -3382,7 +3403,7 @@
         <v>441</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>41</v>
@@ -3391,28 +3412,21 @@
         <v>41</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>267</v>
+        <v>43</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>65</v>
+        <v>442</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>442</v>
@@ -3427,7 +3441,7 @@
         <v>442</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>441</v>
@@ -3445,46 +3459,46 @@
         <v>442</v>
       </c>
       <c r="AH18" s="3">
-        <v>40774</v>
+        <v>20334</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>274</v>
+        <v>201</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>275</v>
+        <v>404</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>270</v>
+        <v>405</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>92</v>
+        <v>197</v>
       </c>
       <c r="E19" s="2">
-        <f ca="1">DATEDIF(AH19,TODAY(),"Y")</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>33</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>147</v>
+        <v>406</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>276</v>
+        <v>407</v>
       </c>
       <c r="I19" s="3">
-        <v>40903</v>
+        <v>43759</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>41</v>
@@ -3493,13 +3507,18 @@
         <v>41</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S19" s="2"/>
       <c r="T19" s="2" t="s">
         <v>441</v>
       </c>
@@ -3537,46 +3556,46 @@
         <v>442</v>
       </c>
       <c r="AH19" s="3">
-        <v>19604</v>
+        <v>33839</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>274</v>
+        <v>424</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>90</v>
+        <v>214</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>91</v>
+        <v>215</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="E20" s="2">
-        <f ca="1">DATEDIF(AH20,TODAY(),"Y")</f>
-        <v>52</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>93</v>
+        <v>216</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>94</v>
+        <v>217</v>
       </c>
       <c r="I20" s="3">
-        <v>45153</v>
+        <v>44441</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>41</v>
@@ -3588,13 +3607,12 @@
         <v>64</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S20" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R20" s="2"/>
       <c r="T20" s="2" t="s">
         <v>441</v>
       </c>
@@ -3614,7 +3632,7 @@
         <v>442</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC20" s="2" t="s">
         <v>441</v>
@@ -3632,46 +3650,46 @@
         <v>442</v>
       </c>
       <c r="AH20" s="3">
-        <v>26904</v>
+        <v>38219</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>274</v>
+        <v>424</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>272</v>
+        <v>425</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>91</v>
+        <v>211</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="E21" s="2">
-        <f ca="1">DATEDIF(AH21,TODAY(),"Y")</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>273</v>
+        <v>426</v>
       </c>
       <c r="I21" s="3">
-        <v>30675</v>
+        <v>41852</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>41</v>
@@ -3683,12 +3701,12 @@
         <v>64</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S21" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R21" s="2"/>
       <c r="T21" s="2" t="s">
         <v>441</v>
       </c>
@@ -3708,7 +3726,7 @@
         <v>442</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>441</v>
@@ -3726,40 +3744,40 @@
         <v>442</v>
       </c>
       <c r="AH21" s="3">
-        <v>29824</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>269</v>
+        <v>223</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>270</v>
+        <v>224</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="E22" s="2">
-        <f ca="1">DATEDIF(AH22,TODAY(),"Y")</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>147</v>
+        <v>225</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="I22" s="3">
-        <v>39640</v>
+        <v>41194</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>441</v>
@@ -3774,13 +3792,16 @@
         <v>41</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>275</v>
+        <v>435</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
@@ -3802,7 +3823,7 @@
         <v>442</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>441</v>
@@ -3820,46 +3841,46 @@
         <v>442</v>
       </c>
       <c r="AH22" s="3">
-        <v>30919</v>
+        <v>35664</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>427</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>428</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="E23" s="2">
-        <f ca="1">DATEDIF(AH23,TODAY(),"Y")</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>58</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>97</v>
+        <v>429</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>98</v>
+        <v>430</v>
       </c>
       <c r="I23" s="3">
-        <v>39638</v>
+        <v>43027</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>41</v>
@@ -3868,18 +3889,20 @@
         <v>41</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="2"/>
+      <c r="Q23" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="R23" s="2" t="s">
-        <v>275</v>
+        <v>435</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>442</v>
@@ -3915,40 +3938,40 @@
         <v>442</v>
       </c>
       <c r="AH23" s="3">
-        <v>38949</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>100</v>
+        <v>227</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="E24" s="2">
-        <f ca="1">DATEDIF(AH24,TODAY(),"Y")</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>67</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>101</v>
+        <v>230</v>
       </c>
       <c r="I24" s="3">
-        <v>43892</v>
+        <v>36783</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>441</v>
@@ -3963,15 +3986,18 @@
         <v>41</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q24" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="R24" s="2" t="s">
-        <v>275</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="S24" s="2"/>
       <c r="T24" s="2" t="s">
         <v>441</v>
       </c>
@@ -3991,7 +4017,7 @@
         <v>442</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC24" s="2" t="s">
         <v>441</v>
@@ -4009,37 +4035,37 @@
         <v>442</v>
       </c>
       <c r="AH24" s="3">
-        <v>39314</v>
+        <v>21429</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>283</v>
+        <v>33</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2">
-        <f ca="1">DATEDIF(AH25,TODAY(),"Y")</f>
-        <v>61</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>26</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>285</v>
+        <v>37</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>286</v>
+        <v>38</v>
       </c>
       <c r="I25" s="3">
-        <v>40581</v>
+        <v>32592</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>39</v>
@@ -4048,7 +4074,7 @@
         <v>441</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>41</v>
@@ -4057,16 +4083,18 @@
         <v>41</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q25" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S25" s="2"/>
       <c r="T25" s="2" t="s">
         <v>441</v>
       </c>
@@ -4104,46 +4132,46 @@
         <v>442</v>
       </c>
       <c r="AH25" s="3">
-        <v>23619</v>
+        <v>36394</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2">
-        <f ca="1">DATEDIF(AH26,TODAY(),"Y")</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>280</v>
+        <v>254</v>
       </c>
       <c r="I26" s="3">
-        <v>43372</v>
+        <v>41040</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>41</v>
@@ -4155,12 +4183,12 @@
         <v>42</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>441</v>
@@ -4169,19 +4197,19 @@
         <v>442</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC26" s="2" t="s">
         <v>441</v>
@@ -4196,49 +4224,49 @@
         <v>441</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH26" s="3">
-        <v>25079</v>
+        <v>25809</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2">
-        <f ca="1">DATEDIF(AH27,TODAY(),"Y")</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="I27" s="3">
-        <v>43315</v>
+        <v>42711</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>41</v>
@@ -4247,17 +4275,18 @@
         <v>41</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="S27" s="2"/>
       <c r="T27" s="2" t="s">
         <v>441</v>
       </c>
@@ -4265,19 +4294,19 @@
         <v>442</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>441</v>
@@ -4292,49 +4321,49 @@
         <v>441</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH27" s="3">
-        <v>29094</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>295</v>
+        <v>245</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>292</v>
+        <v>246</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2">
-        <f ca="1">DATEDIF(AH28,TODAY(),"Y")</f>
-        <v>46</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>54</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>293</v>
+        <v>247</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>296</v>
+        <v>248</v>
       </c>
       <c r="I28" s="3">
-        <v>44157</v>
+        <v>39285</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>41</v>
@@ -4343,17 +4372,18 @@
         <v>41</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>283</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="S28" s="2"/>
       <c r="T28" s="2" t="s">
         <v>441</v>
       </c>
@@ -4391,7 +4421,7 @@
         <v>442</v>
       </c>
       <c r="AH28" s="3">
-        <v>29094</v>
+        <v>26174</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4399,32 +4429,32 @@
         <v>282</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>112</v>
+        <v>283</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>113</v>
+        <v>284</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E29" s="2">
-        <f ca="1">DATEDIF(AH29,TODAY(),"Y")</f>
-        <v>44</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>114</v>
+        <v>285</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>115</v>
+        <v>286</v>
       </c>
       <c r="I29" s="3">
-        <v>45274</v>
+        <v>40581</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>441</v>
@@ -4439,17 +4469,16 @@
         <v>41</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="R29" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="T29" s="2" t="s">
         <v>441</v>
       </c>
@@ -4469,7 +4498,7 @@
         <v>442</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>441</v>
@@ -4484,10 +4513,10 @@
         <v>441</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH29" s="3">
-        <v>29824</v>
+        <v>23619</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4495,38 +4524,38 @@
         <v>282</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="2">
-        <f ca="1">DATEDIF(AH30,TODAY(),"Y")</f>
-        <v>41</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="I30" s="3">
-        <v>30409</v>
+        <v>35265</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>41</v>
@@ -4557,7 +4586,7 @@
         <v>442</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z30" s="2" t="s">
         <v>442</v>
@@ -4581,40 +4610,40 @@
         <v>441</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH30" s="3">
-        <v>30919</v>
+        <v>35299</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>282</v>
+        <v>131</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>107</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2">
-        <f ca="1">DATEDIF(AH31,TODAY(),"Y")</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>110</v>
+        <v>319</v>
       </c>
       <c r="I31" s="3">
-        <v>35265</v>
+        <v>30870</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>39</v>
@@ -4623,7 +4652,7 @@
         <v>441</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>41</v>
@@ -4638,10 +4667,7 @@
         <v>52</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="R31" s="2" t="s">
-        <v>283</v>
+        <v>132</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
@@ -4654,7 +4680,7 @@
         <v>442</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>442</v>
@@ -4663,7 +4689,7 @@
         <v>442</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC31" s="2" t="s">
         <v>441</v>
@@ -4678,49 +4704,49 @@
         <v>441</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH31" s="3">
-        <v>35299</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E32" s="2">
-        <f ca="1">DATEDIF(AH32,TODAY(),"Y")</f>
-        <v>17</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>38</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="I32" s="3">
-        <v>39355</v>
+        <v>34201</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>41</v>
@@ -4729,29 +4755,29 @@
         <v>41</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>277</v>
+        <v>332</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>442</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>442</v>
@@ -4760,7 +4786,7 @@
         <v>442</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC32" s="2" t="s">
         <v>441</v>
@@ -4775,49 +4801,49 @@
         <v>441</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH32" s="3">
-        <v>39679</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>117</v>
+        <v>343</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>118</v>
+        <v>337</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E33" s="2">
-        <f ca="1">DATEDIF(AH33,TODAY(),"Y")</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>29</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>120</v>
+        <v>338</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>121</v>
+        <v>344</v>
       </c>
       <c r="I33" s="3">
-        <v>34753</v>
+        <v>37037</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>41</v>
@@ -4826,12 +4852,17 @@
         <v>41</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S33" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="T33" s="2" t="s">
         <v>441</v>
       </c>
@@ -4842,7 +4873,7 @@
         <v>442</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>442</v>
@@ -4851,7 +4882,7 @@
         <v>442</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC33" s="2" t="s">
         <v>441</v>
@@ -4866,49 +4897,49 @@
         <v>441</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH33" s="3">
-        <v>23984</v>
+        <v>35299</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>298</v>
+        <v>146</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E34" s="2">
-        <f ca="1">DATEDIF(AH34,TODAY(),"Y")</f>
-        <v>43</v>
+        <f t="shared" ref="E34:E65" ca="1" si="1">DATEDIF(AH34,TODAY(),"Y")</f>
+        <v>10</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>299</v>
+        <v>147</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>302</v>
+        <v>148</v>
       </c>
       <c r="I34" s="3">
-        <v>39266</v>
+        <v>34500</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>41</v>
@@ -4920,17 +4951,19 @@
         <v>51</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q34" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="R34" s="2" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>442</v>
@@ -4945,7 +4978,7 @@
         <v>442</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC34" s="2" t="s">
         <v>441</v>
@@ -4963,46 +4996,46 @@
         <v>442</v>
       </c>
       <c r="AH34" s="3">
-        <v>30189</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>116</v>
+        <v>355</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>310</v>
+        <v>356</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>311</v>
+        <v>357</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>119</v>
+        <v>156</v>
       </c>
       <c r="E35" s="2">
-        <f ca="1">DATEDIF(AH35,TODAY(),"Y")</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>54</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="I35" s="3">
-        <v>44616</v>
+        <v>39744</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>41</v>
@@ -5014,12 +5047,10 @@
         <v>42</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2" t="s">
         <v>441</v>
@@ -5031,7 +5062,7 @@
         <v>442</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>442</v>
@@ -5040,7 +5071,7 @@
         <v>442</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC35" s="2" t="s">
         <v>441</v>
@@ -5055,49 +5086,49 @@
         <v>441</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH35" s="3">
-        <v>32379</v>
+        <v>26174</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>297</v>
+        <v>181</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>298</v>
+        <v>182</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E36" s="2">
-        <f ca="1">DATEDIF(AH36,TODAY(),"Y")</f>
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F36" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G36" s="2" t="s">
-        <v>299</v>
+        <v>183</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>300</v>
+        <v>184</v>
       </c>
       <c r="I36" s="3">
-        <v>30165</v>
+        <v>31574</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>41</v>
@@ -5106,17 +5137,15 @@
         <v>41</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R36" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="S36" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
       <c r="T36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>442</v>
@@ -5134,64 +5163,64 @@
         <v>442</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG36" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH36" s="3">
-        <v>32744</v>
+        <v>18509</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>116</v>
+        <v>201</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>303</v>
+        <v>195</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>304</v>
+        <v>196</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>119</v>
+        <v>197</v>
       </c>
       <c r="E37" s="2">
-        <f ca="1">DATEDIF(AH37,TODAY(),"Y")</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>57</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>305</v>
+        <v>198</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>306</v>
+        <v>199</v>
       </c>
       <c r="I37" s="3">
-        <v>35230</v>
+        <v>33437</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>445</v>
+        <v>63</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>41</v>
@@ -5200,16 +5229,17 @@
         <v>41</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q37" s="2"/>
+      <c r="Q37" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="R37" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="S37" s="2"/>
+        <v>416</v>
+      </c>
       <c r="T37" s="2" t="s">
         <v>441</v>
       </c>
@@ -5217,16 +5247,16 @@
         <v>442</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y37" s="2" t="s">
         <v>441</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB37" s="2" t="s">
         <v>441</v>
@@ -5247,40 +5277,40 @@
         <v>441</v>
       </c>
       <c r="AH37" s="3">
-        <v>34204</v>
+        <v>25082</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>116</v>
+        <v>424</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="E38" s="2">
-        <f ca="1">DATEDIF(AH38,TODAY(),"Y")</f>
-        <v>27</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="I38" s="3">
-        <v>30724</v>
+        <v>44131</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>441</v>
@@ -5295,17 +5325,17 @@
         <v>41</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q38" s="2"/>
-      <c r="R38" s="2" t="s">
-        <v>117</v>
-      </c>
+      <c r="Q38" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="S38" s="2"/>
       <c r="T38" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>442</v>
@@ -5323,64 +5353,64 @@
         <v>442</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF38" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH38" s="3">
-        <v>36029</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>116</v>
+        <v>424</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>122</v>
+        <v>420</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>123</v>
+        <v>421</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>119</v>
+        <v>207</v>
       </c>
       <c r="E39" s="2">
-        <f ca="1">DATEDIF(AH39,TODAY(),"Y")</f>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>124</v>
+        <v>422</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="I39" s="3">
-        <v>35733</v>
+        <v>32379</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>41</v>
@@ -5392,23 +5422,27 @@
         <v>64</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
       <c r="T39" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>441</v>
       </c>
+      <c r="V39" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="X39" s="2" t="s">
         <v>442</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>442</v>
@@ -5417,7 +5451,7 @@
         <v>442</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC39" s="2" t="s">
         <v>441</v>
@@ -5432,7 +5466,7 @@
         <v>441</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH39" s="3">
         <v>42234</v>
@@ -5440,41 +5474,41 @@
     </row>
     <row r="40" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>132</v>
+        <v>435</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>133</v>
+        <v>436</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="E40" s="2">
-        <f ca="1">DATEDIF(AH40,TODAY(),"Y")</f>
-        <v>73</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>134</v>
+        <v>437</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>135</v>
+        <v>438</v>
       </c>
       <c r="I40" s="3">
-        <v>38881</v>
+        <v>33248</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>41</v>
@@ -5483,14 +5517,16 @@
         <v>41</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
+      <c r="S40" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="T40" s="2" t="s">
         <v>441</v>
       </c>
@@ -5510,7 +5546,7 @@
         <v>442</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC40" s="2" t="s">
         <v>441</v>
@@ -5528,40 +5564,40 @@
         <v>442</v>
       </c>
       <c r="AH40" s="3">
-        <v>19239</v>
+        <v>20334</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>320</v>
+        <v>439</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="E41" s="2">
-        <f ca="1">DATEDIF(AH41,TODAY(),"Y")</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>323</v>
+        <v>440</v>
       </c>
       <c r="I41" s="3">
-        <v>34208</v>
+        <v>35236</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>441</v>
@@ -5576,21 +5612,26 @@
         <v>41</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R41" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="S41" s="2"/>
       <c r="T41" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>442</v>
@@ -5599,70 +5640,70 @@
         <v>441</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA41" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE41" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH41" s="3">
-        <v>23984</v>
+        <v>40774</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>330</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>325</v>
+        <v>54</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E42" s="2">
-        <f ca="1">DATEDIF(AH42,TODAY(),"Y")</f>
-        <v>49</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>326</v>
+        <v>55</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>331</v>
+        <v>56</v>
       </c>
       <c r="I42" s="3">
-        <v>38660</v>
+        <v>36784</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>41</v>
@@ -5671,15 +5712,16 @@
         <v>41</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
+      <c r="S42" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="T42" s="2" t="s">
         <v>441</v>
       </c>
@@ -5687,16 +5729,16 @@
         <v>442</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB42" s="2" t="s">
         <v>441</v>
@@ -5717,46 +5759,46 @@
         <v>441</v>
       </c>
       <c r="AH42" s="3">
-        <v>27977</v>
+        <v>36394</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>324</v>
+        <v>259</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>325</v>
+        <v>260</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="E43" s="2">
-        <f ca="1">DATEDIF(AH43,TODAY(),"Y")</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>27</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>326</v>
+        <v>261</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>327</v>
+        <v>262</v>
       </c>
       <c r="I43" s="3">
-        <v>41691</v>
+        <v>40048</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>41</v>
@@ -5768,12 +5810,14 @@
         <v>64</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R43" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="R43" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T43" s="2" t="s">
         <v>441</v>
       </c>
@@ -5793,55 +5837,55 @@
         <v>442</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE43" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG43" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH43" s="3">
-        <v>28364</v>
+        <v>36029</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>126</v>
+        <v>255</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>127</v>
+        <v>256</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="E44" s="2">
-        <f ca="1">DATEDIF(AH44,TODAY(),"Y")</f>
-        <v>42</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>74</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>130</v>
+        <v>258</v>
       </c>
       <c r="I44" s="3">
-        <v>42140</v>
+        <v>33800</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>57</v>
@@ -5859,15 +5903,12 @@
         <v>41</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R44" s="2"/>
+        <v>444</v>
+      </c>
+      <c r="S44" s="2"/>
       <c r="T44" s="2" t="s">
         <v>441</v>
       </c>
@@ -5905,46 +5946,46 @@
         <v>442</v>
       </c>
       <c r="AH44" s="3">
-        <v>30554</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="45" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>328</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="E45" s="2">
-        <f ca="1">DATEDIF(AH45,TODAY(),"Y")</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>52</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>329</v>
+        <v>69</v>
       </c>
       <c r="I45" s="3">
-        <v>33286</v>
+        <v>29855</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>445</v>
+        <v>70</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>41</v>
@@ -5953,15 +5994,14 @@
         <v>41</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R45" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T45" s="2" t="s">
         <v>441</v>
       </c>
@@ -5969,16 +6009,16 @@
         <v>442</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB45" s="2" t="s">
         <v>441</v>
@@ -5999,40 +6039,40 @@
         <v>441</v>
       </c>
       <c r="AH45" s="3">
-        <v>36759</v>
+        <v>26904</v>
       </c>
     </row>
     <row r="46" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>314</v>
+        <v>73</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>315</v>
+        <v>74</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="E46" s="2">
-        <f ca="1">DATEDIF(AH46,TODAY(),"Y")</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>316</v>
+        <v>75</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>317</v>
+        <v>76</v>
       </c>
       <c r="I46" s="3">
-        <v>44363</v>
+        <v>33364</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>441</v>
@@ -6050,14 +6090,16 @@
         <v>64</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S46" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T46" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>442</v>
@@ -6075,7 +6117,7 @@
         <v>442</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC46" s="2" t="s">
         <v>441</v>
@@ -6093,37 +6135,37 @@
         <v>442</v>
       </c>
       <c r="AH46" s="3">
-        <v>37124</v>
+        <v>33474</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>137</v>
+        <v>83</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="E47" s="2">
-        <f ca="1">DATEDIF(AH47,TODAY(),"Y")</f>
-        <v>22</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>34</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>139</v>
+        <v>85</v>
       </c>
       <c r="I47" s="3">
-        <v>43525</v>
+        <v>36682</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>57</v>
@@ -6132,7 +6174,7 @@
         <v>441</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>41</v>
@@ -6144,12 +6186,14 @@
         <v>64</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R47" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T47" s="2" t="s">
         <v>441</v>
       </c>
@@ -6187,46 +6231,46 @@
         <v>442</v>
       </c>
       <c r="AH47" s="3">
-        <v>37854</v>
+        <v>33474</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>131</v>
+        <v>274</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>318</v>
+        <v>95</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>128</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2">
-        <f ca="1">DATEDIF(AH48,TODAY(),"Y")</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>319</v>
+        <v>98</v>
       </c>
       <c r="I48" s="3">
-        <v>30870</v>
+        <v>39638</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>41</v>
@@ -6238,10 +6282,11 @@
         <v>64</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>132</v>
+        <v>77</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2" t="s">
@@ -6281,37 +6326,37 @@
         <v>442</v>
       </c>
       <c r="AH48" s="3">
-        <v>39314</v>
+        <v>38949</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>346</v>
+        <v>275</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2">
-        <f ca="1">DATEDIF(AH49,TODAY(),"Y")</f>
-        <v>80</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>72</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>93</v>
+        <v>147</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="I49" s="3">
-        <v>38254</v>
+        <v>40903</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>57</v>
@@ -6320,7 +6365,7 @@
         <v>441</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>41</v>
@@ -6332,7 +6377,7 @@
         <v>51</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>444</v>
+        <v>43</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -6373,46 +6418,46 @@
         <v>442</v>
       </c>
       <c r="AH49" s="3">
-        <v>16682</v>
+        <v>19604</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>345</v>
+        <v>274</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>332</v>
+        <v>269</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>333</v>
+        <v>270</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2">
-        <f ca="1">DATEDIF(AH50,TODAY(),"Y")</f>
-        <v>62</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>41</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>334</v>
+        <v>147</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="I50" s="3">
-        <v>39712</v>
+        <v>39640</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>41</v>
@@ -6421,14 +6466,15 @@
         <v>41</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S50" s="2"/>
       <c r="T50" s="2" t="s">
         <v>441</v>
       </c>
@@ -6451,52 +6497,52 @@
         <v>442</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE50" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG50" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH50" s="3">
-        <v>23251</v>
+        <v>30919</v>
       </c>
     </row>
     <row r="51" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>140</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2">
-        <f ca="1">DATEDIF(AH51,TODAY(),"Y")</f>
-        <v>60</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="I51" s="3">
-        <v>31464</v>
+        <v>45274</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>57</v>
@@ -6505,7 +6551,7 @@
         <v>441</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>41</v>
@@ -6514,15 +6560,16 @@
         <v>41</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2" t="s">
-        <v>332</v>
+        <v>52</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>441</v>
@@ -6543,7 +6590,7 @@
         <v>442</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC51" s="2" t="s">
         <v>441</v>
@@ -6558,43 +6605,43 @@
         <v>441</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH51" s="3">
-        <v>23986</v>
+        <v>29824</v>
       </c>
     </row>
     <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>345</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>149</v>
+        <v>310</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>311</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E52" s="2">
-        <f ca="1">DATEDIF(AH52,TODAY(),"Y")</f>
-        <v>48</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>37</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>151</v>
+        <v>312</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>152</v>
+        <v>313</v>
       </c>
       <c r="I52" s="3">
-        <v>43546</v>
+        <v>44616</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>441</v>
@@ -6609,17 +6656,16 @@
         <v>41</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q52" s="2"/>
       <c r="R52" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="S52" s="2"/>
       <c r="T52" s="2" t="s">
         <v>441</v>
       </c>
@@ -6639,7 +6685,7 @@
         <v>442</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC52" s="2" t="s">
         <v>441</v>
@@ -6657,46 +6703,46 @@
         <v>442</v>
       </c>
       <c r="AH52" s="3">
-        <v>28364</v>
+        <v>32379</v>
       </c>
     </row>
     <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>345</v>
+        <v>131</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>336</v>
+        <v>126</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>337</v>
+        <v>127</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E53" s="2">
-        <f ca="1">DATEDIF(AH53,TODAY(),"Y")</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>42</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>338</v>
+        <v>129</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>339</v>
+        <v>130</v>
       </c>
       <c r="I53" s="3">
-        <v>34201</v>
+        <v>42140</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K53" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M53" s="2" t="s">
         <v>41</v>
@@ -6705,18 +6751,15 @@
         <v>41</v>
       </c>
       <c r="O53" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="R53" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S53" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="R53" s="2"/>
       <c r="T53" s="2" t="s">
         <v>441</v>
       </c>
@@ -6727,7 +6770,7 @@
         <v>442</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z53" s="2" t="s">
         <v>442</v>
@@ -6736,7 +6779,7 @@
         <v>442</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC53" s="2" t="s">
         <v>441</v>
@@ -6751,49 +6794,49 @@
         <v>441</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH53" s="3">
-        <v>32014</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>345</v>
+        <v>131</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>349</v>
+        <v>136</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E54" s="2">
-        <f ca="1">DATEDIF(AH54,TODAY(),"Y")</f>
+        <f t="shared" ca="1" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F54" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G54" s="2" t="s">
-        <v>351</v>
+        <v>138</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>352</v>
+        <v>139</v>
       </c>
       <c r="I54" s="3">
-        <v>43942</v>
+        <v>43525</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>41</v>
@@ -6808,11 +6851,9 @@
         <v>52</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="R54" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="R54" s="2"/>
       <c r="T54" s="2" t="s">
         <v>441</v>
       </c>
@@ -6820,19 +6861,19 @@
         <v>442</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC54" s="2" t="s">
         <v>441</v>
@@ -6847,10 +6888,10 @@
         <v>441</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH54" s="3">
-        <v>32744</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6858,38 +6899,38 @@
         <v>345</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>340</v>
+        <v>140</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>341</v>
+        <v>141</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E55" s="2">
-        <f ca="1">DATEDIF(AH55,TODAY(),"Y")</f>
-        <v>34</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>60</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>97</v>
+        <v>143</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>342</v>
+        <v>144</v>
       </c>
       <c r="I55" s="3">
-        <v>43445</v>
+        <v>31464</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>41</v>
@@ -6901,15 +6942,13 @@
         <v>42</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q55" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="R55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S55" s="2"/>
       <c r="T55" s="2" t="s">
         <v>441</v>
       </c>
@@ -6947,7 +6986,7 @@
         <v>442</v>
       </c>
       <c r="AH55" s="3">
-        <v>33474</v>
+        <v>23986</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6955,38 +6994,38 @@
         <v>345</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E56" s="2">
-        <f ca="1">DATEDIF(AH56,TODAY(),"Y")</f>
-        <v>29</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>80</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>338</v>
+        <v>93</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="I56" s="3">
-        <v>37037</v>
+        <v>38254</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>41</v>
@@ -6998,14 +7037,10 @@
         <v>51</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="R56" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
       <c r="T56" s="2" t="s">
         <v>441</v>
       </c>
@@ -7016,7 +7051,7 @@
         <v>442</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>442</v>
@@ -7025,7 +7060,7 @@
         <v>442</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC56" s="2" t="s">
         <v>441</v>
@@ -7040,49 +7075,49 @@
         <v>441</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH56" s="3">
-        <v>35299</v>
+        <v>16682</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>145</v>
+        <v>365</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>146</v>
+        <v>366</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>142</v>
+        <v>362</v>
       </c>
       <c r="E57" s="2">
-        <f ca="1">DATEDIF(AH57,TODAY(),"Y")</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>26</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>147</v>
+        <v>367</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>148</v>
+        <v>368</v>
       </c>
       <c r="I57" s="3">
-        <v>34500</v>
+        <v>37190</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>41</v>
@@ -7091,22 +7126,20 @@
         <v>41</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>332</v>
+        <v>111</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="S57" s="2"/>
       <c r="T57" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>442</v>
@@ -7139,46 +7172,46 @@
         <v>442</v>
       </c>
       <c r="AH57" s="3">
-        <v>42234</v>
+        <v>36396</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="E58" s="2">
-        <f ca="1">DATEDIF(AH58,TODAY(),"Y")</f>
-        <v>54</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>18</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="I58" s="3">
-        <v>39744</v>
+        <v>42348</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>41</v>
@@ -7187,13 +7220,15 @@
         <v>41</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
+      <c r="R58" s="2" t="s">
+        <v>375</v>
+      </c>
       <c r="S58" s="2"/>
       <c r="T58" s="2" t="s">
         <v>441</v>
@@ -7205,7 +7240,7 @@
         <v>442</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z58" s="2" t="s">
         <v>442</v>
@@ -7214,7 +7249,7 @@
         <v>442</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC58" s="2" t="s">
         <v>441</v>
@@ -7229,49 +7264,49 @@
         <v>441</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH58" s="3">
-        <v>26174</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>164</v>
+        <v>361</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="E59" s="2">
-        <f ca="1">DATEDIF(AH59,TODAY(),"Y")</f>
-        <v>37</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>30</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>165</v>
+        <v>363</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="I59" s="3">
-        <v>45454</v>
+        <v>42026</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>41</v>
@@ -7283,12 +7318,12 @@
         <v>64</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="R59" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S59" s="2"/>
       <c r="T59" s="2" t="s">
         <v>441</v>
       </c>
@@ -7311,10 +7346,10 @@
         <v>442</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>441</v>
@@ -7326,46 +7361,46 @@
         <v>442</v>
       </c>
       <c r="AH59" s="3">
-        <v>32379</v>
+        <v>34934</v>
       </c>
     </row>
     <row r="60" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>172</v>
+        <v>375</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>164</v>
+        <v>376</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="E60" s="2">
-        <f ca="1">DATEDIF(AH60,TODAY(),"Y")</f>
-        <v>35</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>47</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>165</v>
+        <v>377</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>173</v>
+        <v>378</v>
       </c>
       <c r="I60" s="3">
-        <v>32866</v>
+        <v>41998</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>41</v>
@@ -7377,11 +7412,9 @@
         <v>64</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>356</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
       <c r="T60" s="2" t="s">
         <v>441</v>
@@ -7402,7 +7435,7 @@
         <v>442</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC60" s="2" t="s">
         <v>441</v>
@@ -7420,40 +7453,40 @@
         <v>442</v>
       </c>
       <c r="AH60" s="3">
-        <v>33111</v>
+        <v>28729</v>
       </c>
     </row>
     <row r="61" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>167</v>
+        <v>383</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>168</v>
+        <v>384</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E61" s="2">
-        <f ca="1">DATEDIF(AH61,TODAY(),"Y")</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>15</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>169</v>
+        <v>385</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>170</v>
+        <v>386</v>
       </c>
       <c r="I61" s="3">
-        <v>30849</v>
+        <v>31364</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>441</v>
@@ -7468,21 +7501,24 @@
         <v>41</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="R61" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="S61" s="2"/>
       <c r="T61" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V61" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="X61" s="2" t="s">
         <v>442</v>
@@ -7497,7 +7533,7 @@
         <v>442</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC61" s="2" t="s">
         <v>441</v>
@@ -7512,49 +7548,49 @@
         <v>441</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH61" s="3">
-        <v>34204</v>
+        <v>40409</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E62" s="2">
-        <f ca="1">DATEDIF(AH62,TODAY(),"Y")</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>166</v>
+        <v>188</v>
       </c>
       <c r="I62" s="3">
-        <v>37460</v>
+        <v>38219</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>41</v>
@@ -7566,12 +7602,13 @@
         <v>64</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="R62" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S62" s="2"/>
       <c r="T62" s="2" t="s">
         <v>441</v>
       </c>
@@ -7591,7 +7628,7 @@
         <v>442</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC62" s="2" t="s">
         <v>441</v>
@@ -7609,46 +7646,46 @@
         <v>442</v>
       </c>
       <c r="AH62" s="3">
-        <v>34936</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E63" s="2">
-        <f ca="1">DATEDIF(AH63,TODAY(),"Y")</f>
-        <v>30</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="I63" s="3">
-        <v>30488</v>
+        <v>39108</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>41</v>
@@ -7657,20 +7694,20 @@
         <v>41</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="S63" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="T63" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X63" s="2" t="s">
         <v>442</v>
@@ -7685,7 +7722,7 @@
         <v>442</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC63" s="2" t="s">
         <v>441</v>
@@ -7703,46 +7740,46 @@
         <v>442</v>
       </c>
       <c r="AH63" s="3">
-        <v>34934</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="64" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E64" s="2">
-        <f ca="1">DATEDIF(AH64,TODAY(),"Y")</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="I64" s="3">
-        <v>40470</v>
+        <v>30854</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>41</v>
@@ -7751,20 +7788,24 @@
         <v>41</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q64" s="2" t="s">
-        <v>356</v>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="X64" s="2" t="s">
         <v>442</v>
@@ -7779,7 +7820,7 @@
         <v>442</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC64" s="2" t="s">
         <v>441</v>
@@ -7797,37 +7838,37 @@
         <v>442</v>
       </c>
       <c r="AH64" s="3">
-        <v>35664</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>375</v>
+        <v>210</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>376</v>
+        <v>447</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>362</v>
+        <v>207</v>
       </c>
       <c r="E65" s="2">
-        <f ca="1">DATEDIF(AH65,TODAY(),"Y")</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>377</v>
+        <v>212</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>378</v>
+        <v>213</v>
       </c>
       <c r="I65" s="3">
-        <v>41998</v>
+        <v>35527</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>57</v>
@@ -7836,7 +7877,7 @@
         <v>441</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>41</v>
@@ -7845,10 +7886,10 @@
         <v>41</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -7871,7 +7912,7 @@
         <v>442</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC65" s="2" t="s">
         <v>441</v>
@@ -7886,40 +7927,40 @@
         <v>441</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH65" s="3">
-        <v>28729</v>
+        <v>20334</v>
       </c>
     </row>
     <row r="66" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>360</v>
+        <v>431</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>361</v>
+        <v>432</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="E66" s="2">
-        <f ca="1">DATEDIF(AH66,TODAY(),"Y")</f>
-        <v>30</v>
+        <f t="shared" ref="E66:E101" ca="1" si="2">DATEDIF(AH66,TODAY(),"Y")</f>
+        <v>38</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>363</v>
+        <v>433</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="I66" s="3">
-        <v>42026</v>
+        <v>30080</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>57</v>
@@ -7928,7 +7969,7 @@
         <v>441</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>41</v>
@@ -7937,17 +7978,20 @@
         <v>41</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>442</v>
@@ -7983,37 +8027,37 @@
         <v>442</v>
       </c>
       <c r="AH66" s="3">
-        <v>34934</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>365</v>
+        <v>232</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="E67" s="2">
-        <f ca="1">DATEDIF(AH67,TODAY(),"Y")</f>
-        <v>26</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>367</v>
+        <v>234</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>368</v>
+        <v>235</v>
       </c>
       <c r="I67" s="3">
-        <v>37190</v>
+        <v>44717</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>57</v>
@@ -8022,7 +8066,7 @@
         <v>441</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>41</v>
@@ -8034,12 +8078,13 @@
         <v>64</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="R67" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="S67" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="T67" s="2" t="s">
         <v>441</v>
       </c>
@@ -8059,7 +8104,7 @@
         <v>442</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC67" s="2" t="s">
         <v>441</v>
@@ -8074,49 +8119,49 @@
         <v>441</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH67" s="3">
-        <v>36396</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>374</v>
+        <v>231</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>371</v>
+        <v>218</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>372</v>
+        <v>219</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>362</v>
+        <v>220</v>
       </c>
       <c r="E68" s="2">
-        <f ca="1">DATEDIF(AH68,TODAY(),"Y")</f>
-        <v>19</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>37</v>
+        <v>221</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>373</v>
+        <v>222</v>
       </c>
       <c r="I68" s="3">
-        <v>35654</v>
+        <v>36438</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>41</v>
@@ -8125,14 +8170,16 @@
         <v>41</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q68" s="2"/>
+      <c r="Q68" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="R68" s="2" t="s">
-        <v>375</v>
+        <v>435</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>441</v>
@@ -8171,46 +8218,46 @@
         <v>442</v>
       </c>
       <c r="AH68" s="3">
-        <v>38949</v>
+        <v>37124</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>374</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>369</v>
+        <v>267</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>366</v>
+        <v>264</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>362</v>
+        <v>67</v>
       </c>
       <c r="E69" s="2">
-        <f ca="1">DATEDIF(AH69,TODAY(),"Y")</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>367</v>
+        <v>265</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>370</v>
+        <v>268</v>
       </c>
       <c r="I69" s="3">
-        <v>42348</v>
+        <v>42665</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>41</v>
@@ -8219,16 +8266,16 @@
         <v>41</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="S69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="T69" s="2" t="s">
         <v>441</v>
       </c>
@@ -8266,40 +8313,40 @@
         <v>442</v>
       </c>
       <c r="AH69" s="3">
-        <v>39314</v>
+        <v>26904</v>
       </c>
     </row>
     <row r="70" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>180</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>181</v>
+        <v>87</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>182</v>
+        <v>83</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>177</v>
+        <v>67</v>
       </c>
       <c r="E70" s="2">
-        <f ca="1">DATEDIF(AH70,TODAY(),"Y")</f>
-        <v>75</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>183</v>
+        <v>84</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>184</v>
+        <v>88</v>
       </c>
       <c r="I70" s="3">
-        <v>31574</v>
+        <v>43399</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>441</v>
@@ -8317,10 +8364,14 @@
         <v>64</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q70" s="2"/>
-      <c r="R70" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q70" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T70" s="2" t="s">
         <v>441</v>
       </c>
@@ -8358,37 +8409,37 @@
         <v>442</v>
       </c>
       <c r="AH70" s="3">
-        <v>18509</v>
+        <v>34207</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>391</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>392</v>
+        <v>91</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="E71" s="2">
-        <f ca="1">DATEDIF(AH71,TODAY(),"Y")</f>
-        <v>55</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>393</v>
+        <v>93</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>394</v>
+        <v>94</v>
       </c>
       <c r="I71" s="3">
-        <v>40723</v>
+        <v>45153</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>89</v>
@@ -8413,8 +8464,9 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="S71" s="2"/>
       <c r="T71" s="2" t="s">
         <v>441</v>
       </c>
@@ -8452,37 +8504,37 @@
         <v>442</v>
       </c>
       <c r="AH71" s="3">
-        <v>25811</v>
+        <v>26904</v>
       </c>
     </row>
     <row r="72" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="E72" s="2">
-        <f ca="1">DATEDIF(AH72,TODAY(),"Y")</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>44</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>390</v>
+        <v>273</v>
       </c>
       <c r="I72" s="3">
-        <v>34618</v>
+        <v>30675</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>89</v>
@@ -8505,10 +8557,10 @@
       <c r="P72" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="S72" s="2"/>
       <c r="T72" s="2" t="s">
         <v>441</v>
       </c>
@@ -8546,37 +8598,37 @@
         <v>442</v>
       </c>
       <c r="AH72" s="3">
-        <v>25079</v>
+        <v>29824</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>180</v>
+        <v>274</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>189</v>
+        <v>100</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>190</v>
+        <v>91</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>177</v>
+        <v>92</v>
       </c>
       <c r="E73" s="2">
-        <f ca="1">DATEDIF(AH73,TODAY(),"Y")</f>
-        <v>36</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>191</v>
+        <v>93</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>192</v>
+        <v>101</v>
       </c>
       <c r="I73" s="3">
-        <v>31472</v>
+        <v>43892</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>89</v>
@@ -8585,7 +8637,7 @@
         <v>441</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>41</v>
@@ -8601,7 +8653,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>181</v>
+        <v>275</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>441</v>
@@ -8640,46 +8692,46 @@
         <v>442</v>
       </c>
       <c r="AH73" s="3">
-        <v>32744</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>180</v>
+        <v>282</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>177</v>
+        <v>104</v>
       </c>
       <c r="E74" s="2">
-        <f ca="1">DATEDIF(AH74,TODAY(),"Y")</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>41</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>187</v>
+        <v>105</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>188</v>
+        <v>106</v>
       </c>
       <c r="I74" s="3">
-        <v>38219</v>
+        <v>30409</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>41</v>
@@ -8691,11 +8743,13 @@
         <v>64</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q74" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q74" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="R74" s="2" t="s">
-        <v>181</v>
+        <v>283</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2" t="s">
@@ -8717,7 +8771,7 @@
         <v>442</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC74" s="2" t="s">
         <v>441</v>
@@ -8735,37 +8789,37 @@
         <v>442</v>
       </c>
       <c r="AH74" s="3">
-        <v>34204</v>
+        <v>30919</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>379</v>
+        <v>117</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>380</v>
+        <v>118</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="E75" s="2">
-        <f ca="1">DATEDIF(AH75,TODAY(),"Y")</f>
-        <v>18</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>381</v>
+        <v>120</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>382</v>
+        <v>121</v>
       </c>
       <c r="I75" s="3">
-        <v>44584</v>
+        <v>34753</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>89</v>
@@ -8774,7 +8828,7 @@
         <v>441</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>41</v>
@@ -8783,17 +8837,14 @@
         <v>41</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R75" s="2" t="s">
-        <v>181</v>
+        <v>43</v>
       </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U75" s="2" t="s">
         <v>442</v>
@@ -8811,7 +8862,7 @@
         <v>442</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC75" s="2" t="s">
         <v>441</v>
@@ -8829,40 +8880,40 @@
         <v>442</v>
       </c>
       <c r="AH75" s="3">
-        <v>39314</v>
+        <v>23984</v>
       </c>
     </row>
     <row r="76" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>383</v>
+        <v>301</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>384</v>
+        <v>298</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="E76" s="2">
-        <f ca="1">DATEDIF(AH76,TODAY(),"Y")</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>43</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>385</v>
+        <v>299</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>386</v>
+        <v>302</v>
       </c>
       <c r="I76" s="3">
-        <v>31364</v>
+        <v>39266</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>441</v>
@@ -8877,24 +8928,20 @@
         <v>41</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S76" s="2"/>
+        <v>117</v>
+      </c>
       <c r="T76" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V76" s="2" t="s">
-        <v>174</v>
+        <v>442</v>
       </c>
       <c r="X76" s="2" t="s">
         <v>442</v>
@@ -8924,40 +8971,40 @@
         <v>441</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH76" s="3">
-        <v>40409</v>
+        <v>30189</v>
       </c>
     </row>
     <row r="77" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>387</v>
+        <v>122</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>176</v>
+        <v>123</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="E77" s="2">
-        <f ca="1">DATEDIF(AH77,TODAY(),"Y")</f>
-        <v>15</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>10</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>178</v>
+        <v>124</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>388</v>
+        <v>125</v>
       </c>
       <c r="I77" s="3">
-        <v>45309</v>
+        <v>35733</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>89</v>
@@ -8966,7 +9013,7 @@
         <v>441</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>41</v>
@@ -8982,9 +9029,8 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S77" s="2"/>
+        <v>117</v>
+      </c>
       <c r="T77" s="2" t="s">
         <v>441</v>
       </c>
@@ -9022,46 +9068,46 @@
         <v>442</v>
       </c>
       <c r="AH77" s="3">
-        <v>40409</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="78" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>180</v>
+        <v>131</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="E78" s="2">
-        <f ca="1">DATEDIF(AH78,TODAY(),"Y")</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>73</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>179</v>
+        <v>135</v>
       </c>
       <c r="I78" s="3">
-        <v>30854</v>
+        <v>38881</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>41</v>
@@ -9070,24 +9116,19 @@
         <v>41</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="R78" s="2"/>
       <c r="S78" s="2"/>
       <c r="T78" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V78" s="2" t="s">
-        <v>153</v>
+        <v>442</v>
       </c>
       <c r="X78" s="2" t="s">
         <v>442</v>
@@ -9102,7 +9143,7 @@
         <v>442</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC78" s="2" t="s">
         <v>441</v>
@@ -9120,46 +9161,46 @@
         <v>442</v>
       </c>
       <c r="AH78" s="3">
-        <v>42234</v>
+        <v>19239</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E79" s="2">
-        <f ca="1">DATEDIF(AH79,TODAY(),"Y")</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>28</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="I79" s="3">
-        <v>39108</v>
+        <v>40470</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>41</v>
@@ -9168,20 +9209,20 @@
         <v>41</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P79" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q79" s="2"/>
-      <c r="R79" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q79" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="S79" s="2"/>
       <c r="T79" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>442</v>
@@ -9196,7 +9237,7 @@
         <v>442</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC79" s="2" t="s">
         <v>441</v>
@@ -9214,46 +9255,46 @@
         <v>442</v>
       </c>
       <c r="AH79" s="3">
-        <v>42234</v>
+        <v>35664</v>
       </c>
     </row>
     <row r="80" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>401</v>
+        <v>167</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>402</v>
+        <v>168</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="E80" s="2">
-        <f ca="1">DATEDIF(AH80,TODAY(),"Y")</f>
-        <v>68</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>47</v>
+        <v>169</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>403</v>
+        <v>170</v>
       </c>
       <c r="I80" s="3">
-        <v>31435</v>
+        <v>30849</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>41</v>
@@ -9265,13 +9306,15 @@
         <v>42</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S80" s="2" t="s">
-        <v>395</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
       <c r="T80" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>442</v>
@@ -9286,67 +9329,67 @@
         <v>442</v>
       </c>
       <c r="AA80" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB80" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF80" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG80" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH80" s="3">
-        <v>21064</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="81" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>400</v>
+        <v>355</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>396</v>
+        <v>172</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>398</v>
+        <v>156</v>
       </c>
       <c r="E81" s="2">
-        <f ca="1">DATEDIF(AH81,TODAY(),"Y")</f>
-        <v>25</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>35</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>61</v>
+        <v>165</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>399</v>
+        <v>173</v>
       </c>
       <c r="I81" s="3">
-        <v>30431</v>
+        <v>32866</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>41</v>
@@ -9355,17 +9398,15 @@
         <v>41</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="S81" s="2" t="s">
-        <v>400</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="R81" s="2"/>
       <c r="T81" s="2" t="s">
         <v>441</v>
       </c>
@@ -9373,7 +9414,7 @@
         <v>442</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y81" s="2" t="s">
         <v>442</v>
@@ -9385,55 +9426,55 @@
         <v>442</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF81" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG81" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH81" s="3">
-        <v>36759</v>
+        <v>33111</v>
       </c>
     </row>
     <row r="82" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>201</v>
+        <v>355</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>446</v>
+        <v>155</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="E82" s="2">
-        <f ca="1">DATEDIF(AH82,TODAY(),"Y")</f>
-        <v>72</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>30</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
       <c r="I82" s="3">
-        <v>32385</v>
+        <v>30488</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>89</v>
@@ -9442,7 +9483,7 @@
         <v>441</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>41</v>
@@ -9454,15 +9495,14 @@
         <v>42</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q82" s="2"/>
-      <c r="R82" s="2"/>
-      <c r="S82" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q82" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="S82" s="2"/>
       <c r="T82" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U82" s="2" t="s">
         <v>442</v>
@@ -9498,46 +9538,46 @@
         <v>442</v>
       </c>
       <c r="AH82" s="3">
-        <v>19604</v>
+        <v>34934</v>
       </c>
     </row>
     <row r="83" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>201</v>
+        <v>374</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>416</v>
+        <v>371</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>417</v>
+        <v>372</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>197</v>
+        <v>362</v>
       </c>
       <c r="E83" s="2">
-        <f ca="1">DATEDIF(AH83,TODAY(),"Y")</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>418</v>
+        <v>37</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="I83" s="3">
-        <v>45226</v>
+        <v>35654</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>41</v>
@@ -9546,15 +9586,14 @@
         <v>41</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2" t="s">
-        <v>202</v>
+      <c r="R83" s="2" t="s">
+        <v>375</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>441</v>
@@ -9593,37 +9632,37 @@
         <v>442</v>
       </c>
       <c r="AH83" s="3">
-        <v>20334</v>
+        <v>38949</v>
       </c>
     </row>
     <row r="84" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>408</v>
+        <v>391</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E84" s="2">
-        <f ca="1">DATEDIF(AH84,TODAY(),"Y")</f>
-        <v>59</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>55</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>410</v>
+        <v>393</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>411</v>
+        <v>394</v>
       </c>
       <c r="I84" s="3">
-        <v>34791</v>
+        <v>40723</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>89</v>
@@ -9632,7 +9671,7 @@
         <v>441</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>41</v>
@@ -9644,17 +9683,14 @@
         <v>64</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q84" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q84" s="2"/>
       <c r="R84" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="S84" s="2"/>
+        <v>181</v>
+      </c>
       <c r="T84" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U84" s="2" t="s">
         <v>442</v>
@@ -9672,7 +9708,7 @@
         <v>442</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC84" s="2" t="s">
         <v>441</v>
@@ -9690,46 +9726,46 @@
         <v>442</v>
       </c>
       <c r="AH84" s="3">
-        <v>24351</v>
+        <v>25811</v>
       </c>
     </row>
     <row r="85" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>195</v>
+        <v>379</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>196</v>
+        <v>380</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E85" s="2">
-        <f ca="1">DATEDIF(AH85,TODAY(),"Y")</f>
-        <v>57</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>18</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>198</v>
+        <v>381</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>199</v>
+        <v>382</v>
       </c>
       <c r="I85" s="3">
-        <v>33437</v>
+        <v>44584</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>41</v>
@@ -9743,14 +9779,12 @@
       <c r="P85" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q85" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="R85" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="S85" s="2"/>
       <c r="T85" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U85" s="2" t="s">
         <v>442</v>
@@ -9759,7 +9793,7 @@
         <v>442</v>
       </c>
       <c r="Y85" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z85" s="2" t="s">
         <v>442</v>
@@ -9783,40 +9817,40 @@
         <v>441</v>
       </c>
       <c r="AG85" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH85" s="3">
-        <v>25082</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="86" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>412</v>
+        <v>387</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>413</v>
+        <v>176</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E86" s="2">
-        <f ca="1">DATEDIF(AH86,TODAY(),"Y")</f>
-        <v>47</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>15</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>414</v>
+        <v>178</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="I86" s="3">
-        <v>36092</v>
+        <v>45309</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>89</v>
@@ -9825,7 +9859,7 @@
         <v>441</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>41</v>
@@ -9837,20 +9871,18 @@
         <v>64</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q86" s="2" t="s">
-        <v>202</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q86" s="2"/>
       <c r="R86" s="2" t="s">
-        <v>416</v>
+        <v>181</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X86" s="2" t="s">
         <v>442</v>
@@ -9865,7 +9897,7 @@
         <v>442</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC86" s="2" t="s">
         <v>441</v>
@@ -9883,46 +9915,46 @@
         <v>442</v>
       </c>
       <c r="AH86" s="3">
-        <v>28729</v>
+        <v>40409</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>404</v>
+        <v>189</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>405</v>
+        <v>190</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E87" s="2">
-        <f ca="1">DATEDIF(AH87,TODAY(),"Y")</f>
-        <v>33</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>406</v>
+        <v>191</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>407</v>
+        <v>192</v>
       </c>
       <c r="I87" s="3">
-        <v>43759</v>
+        <v>31472</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>41</v>
@@ -9936,13 +9968,10 @@
       <c r="P87" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q87" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="Q87" s="2"/>
       <c r="R87" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="S87" s="2"/>
+        <v>181</v>
+      </c>
       <c r="T87" s="2" t="s">
         <v>441</v>
       </c>
@@ -9980,46 +10009,46 @@
         <v>442</v>
       </c>
       <c r="AH87" s="3">
-        <v>33839</v>
+        <v>32744</v>
       </c>
     </row>
     <row r="88" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>424</v>
+        <v>180</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>210</v>
+        <v>389</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>447</v>
+        <v>182</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="E88" s="2">
-        <f ca="1">DATEDIF(AH88,TODAY(),"Y")</f>
-        <v>70</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>57</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>213</v>
+        <v>390</v>
       </c>
       <c r="I88" s="3">
-        <v>35527</v>
+        <v>34618</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K88" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>41</v>
@@ -10028,13 +10057,15 @@
         <v>41</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q88" s="2"/>
-      <c r="R88" s="2"/>
+      <c r="R88" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="T88" s="2" t="s">
         <v>441</v>
       </c>
@@ -10054,7 +10085,7 @@
         <v>442</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC88" s="2" t="s">
         <v>441</v>
@@ -10069,49 +10100,49 @@
         <v>441</v>
       </c>
       <c r="AG88" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH88" s="3">
-        <v>20334</v>
+        <v>25079</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>424</v>
+        <v>201</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>425</v>
+        <v>202</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>211</v>
+        <v>446</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E89" s="2">
-        <f ca="1">DATEDIF(AH89,TODAY(),"Y")</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>426</v>
+        <v>204</v>
       </c>
       <c r="I89" s="3">
-        <v>41852</v>
+        <v>32385</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>41</v>
@@ -10120,15 +10151,16 @@
         <v>41</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q89" s="2" t="s">
-        <v>210</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="Q89" s="2"/>
       <c r="R89" s="2"/>
+      <c r="S89" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="T89" s="2" t="s">
         <v>441</v>
       </c>
@@ -10166,46 +10198,46 @@
         <v>442</v>
       </c>
       <c r="AH89" s="3">
-        <v>24714</v>
+        <v>19604</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>424</v>
+        <v>201</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>205</v>
+        <v>412</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>206</v>
+        <v>413</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E90" s="2">
-        <f ca="1">DATEDIF(AH90,TODAY(),"Y")</f>
-        <v>32</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>47</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>208</v>
+        <v>414</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>209</v>
+        <v>415</v>
       </c>
       <c r="I90" s="3">
-        <v>44131</v>
+        <v>36092</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>41</v>
@@ -10220,11 +10252,14 @@
         <v>52</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>210</v>
+        <v>202</v>
+      </c>
+      <c r="R90" s="2" t="s">
+        <v>416</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U90" s="2" t="s">
         <v>442</v>
@@ -10233,7 +10268,7 @@
         <v>442</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z90" s="2" t="s">
         <v>442</v>
@@ -10257,49 +10292,49 @@
         <v>441</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH90" s="3">
-        <v>34204</v>
+        <v>28729</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>424</v>
+        <v>201</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>214</v>
+        <v>408</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>215</v>
+        <v>409</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="E91" s="2">
-        <f ca="1">DATEDIF(AH91,TODAY(),"Y")</f>
-        <v>21</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>59</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>216</v>
+        <v>410</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>217</v>
+        <v>411</v>
       </c>
       <c r="I91" s="3">
-        <v>44441</v>
+        <v>34791</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>41</v>
@@ -10314,11 +10349,14 @@
         <v>52</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="R91" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="R91" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="S91" s="2"/>
       <c r="T91" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>442</v>
@@ -10354,46 +10392,46 @@
         <v>442</v>
       </c>
       <c r="AH91" s="3">
-        <v>38219</v>
+        <v>24351</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>424</v>
+        <v>231</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>421</v>
+        <v>237</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="E92" s="2">
-        <f ca="1">DATEDIF(AH92,TODAY(),"Y")</f>
-        <v>10</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>38</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>422</v>
+        <v>238</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>423</v>
+        <v>239</v>
       </c>
       <c r="I92" s="3">
-        <v>32379</v>
+        <v>29601</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>41</v>
@@ -10402,30 +10440,28 @@
         <v>41</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="R92" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="T92" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V92" s="2" t="s">
-        <v>200</v>
+        <v>442</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>442</v>
       </c>
       <c r="Y92" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z92" s="2" t="s">
         <v>442</v>
@@ -10434,7 +10470,7 @@
         <v>442</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC92" s="2" t="s">
         <v>441</v>
@@ -10449,49 +10485,49 @@
         <v>441</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH92" s="3">
-        <v>42234</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="93" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>231</v>
+        <v>58</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="E93" s="2">
-        <f ca="1">DATEDIF(AH93,TODAY(),"Y")</f>
-        <v>74</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>23</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="I93" s="3">
-        <v>44717</v>
+        <v>33341</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>41</v>
@@ -10503,13 +10539,15 @@
         <v>64</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q93" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R93" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S93" s="2"/>
       <c r="T93" s="2" t="s">
         <v>441</v>
       </c>
@@ -10529,10 +10567,10 @@
         <v>442</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD93" s="2" t="s">
         <v>441</v>
@@ -10541,53 +10579,53 @@
         <v>441</v>
       </c>
       <c r="AF93" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG93" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH93" s="3">
-        <v>18874</v>
+        <v>37489</v>
       </c>
     </row>
     <row r="94" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>435</v>
+        <v>297</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>436</v>
+        <v>298</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="E94" s="2">
-        <f ca="1">DATEDIF(AH94,TODAY(),"Y")</f>
+        <f t="shared" ca="1" si="2"/>
+        <v>36</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>30165</v>
+      </c>
+      <c r="J94" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="K94" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L94" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="H94" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="I94" s="3">
-        <v>33248</v>
-      </c>
-      <c r="J94" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K94" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="L94" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="M94" s="2" t="s">
         <v>41</v>
       </c>
@@ -10595,18 +10633,17 @@
         <v>41</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2" t="s">
-        <v>232</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="R94" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S94" s="2"/>
       <c r="T94" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>442</v>
@@ -10624,64 +10661,64 @@
         <v>442</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD94" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF94" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG94" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH94" s="3">
-        <v>20334</v>
+        <v>32744</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>227</v>
+        <v>307</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>220</v>
+        <v>119</v>
       </c>
       <c r="E95" s="2">
-        <f ca="1">DATEDIF(AH95,TODAY(),"Y")</f>
-        <v>67</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>27</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>230</v>
+        <v>309</v>
       </c>
       <c r="I95" s="3">
-        <v>36783</v>
+        <v>30724</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>41</v>
@@ -10690,18 +10727,15 @@
         <v>41</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q95" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="Q95" s="2"/>
       <c r="R95" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="S95" s="2"/>
+        <v>117</v>
+      </c>
       <c r="T95" s="2" t="s">
         <v>441</v>
       </c>
@@ -10712,7 +10746,7 @@
         <v>442</v>
       </c>
       <c r="Y95" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z95" s="2" t="s">
         <v>442</v>
@@ -10721,16 +10755,16 @@
         <v>442</v>
       </c>
       <c r="AB95" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC95" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF95" s="2" t="s">
         <v>441</v>
@@ -10739,46 +10773,46 @@
         <v>442</v>
       </c>
       <c r="AH95" s="3">
-        <v>21429</v>
+        <v>36029</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>427</v>
+        <v>324</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>428</v>
+        <v>325</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="E96" s="2">
-        <f ca="1">DATEDIF(AH96,TODAY(),"Y")</f>
-        <v>58</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>48</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>429</v>
+        <v>326</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>430</v>
+        <v>327</v>
       </c>
       <c r="I96" s="3">
-        <v>43027</v>
+        <v>41691</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>41</v>
@@ -10787,20 +10821,17 @@
         <v>41</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R96" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="S96" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="R96" s="2"/>
       <c r="T96" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U96" s="2" t="s">
         <v>442</v>
@@ -10818,64 +10849,64 @@
         <v>442</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC96" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE96" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF96" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG96" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH96" s="3">
-        <v>24714</v>
+        <v>28364</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>431</v>
+        <v>320</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>432</v>
+        <v>321</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="E97" s="2">
-        <f ca="1">DATEDIF(AH97,TODAY(),"Y")</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>60</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>434</v>
+        <v>323</v>
       </c>
       <c r="I97" s="3">
-        <v>30080</v>
+        <v>34208</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>41</v>
@@ -10884,20 +10915,18 @@
         <v>41</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R97" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="R97" s="2"/>
       <c r="S97" s="2"/>
       <c r="T97" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>442</v>
@@ -10906,10 +10935,10 @@
         <v>442</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z97" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA97" s="2" t="s">
         <v>442</v>
@@ -10918,61 +10947,61 @@
         <v>442</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE97" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF97" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG97" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH97" s="3">
-        <v>32014</v>
+        <v>23984</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>231</v>
+        <v>345</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>236</v>
+        <v>332</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>237</v>
+        <v>333</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2">
-        <f ca="1">DATEDIF(AH98,TODAY(),"Y")</f>
-        <v>38</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>62</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>238</v>
+        <v>334</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>239</v>
+        <v>335</v>
       </c>
       <c r="I98" s="3">
-        <v>29601</v>
+        <v>39712</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>41</v>
@@ -10981,16 +11010,13 @@
         <v>41</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q98" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R98" s="2" t="s">
-        <v>435</v>
+        <v>71</v>
+      </c>
+      <c r="S98" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>441</v>
@@ -11014,55 +11040,55 @@
         <v>442</v>
       </c>
       <c r="AC98" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE98" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF98" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG98" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH98" s="3">
-        <v>32014</v>
+        <v>23251</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>231</v>
+        <v>355</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>223</v>
+        <v>353</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>220</v>
+        <v>156</v>
       </c>
       <c r="E99" s="2">
-        <f ca="1">DATEDIF(AH99,TODAY(),"Y")</f>
-        <v>28</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>37</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="I99" s="3">
-        <v>41194</v>
+        <v>45454</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>441</v>
@@ -11077,18 +11103,15 @@
         <v>41</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R99" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="S99" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="R99" s="2"/>
       <c r="T99" s="2" t="s">
         <v>441</v>
       </c>
@@ -11108,13 +11131,13 @@
         <v>442</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC99" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD99" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE99" s="2" t="s">
         <v>441</v>
@@ -11126,46 +11149,46 @@
         <v>442</v>
       </c>
       <c r="AH99" s="3">
-        <v>35664</v>
+        <v>32379</v>
       </c>
     </row>
     <row r="100" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>218</v>
+        <v>396</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>219</v>
+        <v>397</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>220</v>
+        <v>398</v>
       </c>
       <c r="E100" s="2">
-        <f ca="1">DATEDIF(AH100,TODAY(),"Y")</f>
-        <v>24</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>221</v>
+        <v>61</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>222</v>
+        <v>399</v>
       </c>
       <c r="I100" s="3">
-        <v>36438</v>
+        <v>30431</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>41</v>
@@ -11174,16 +11197,16 @@
         <v>41</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R100" s="2" t="s">
-        <v>435</v>
+        <v>401</v>
+      </c>
+      <c r="S100" s="2" t="s">
+        <v>400</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>441</v>
@@ -11192,7 +11215,7 @@
         <v>442</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y100" s="2" t="s">
         <v>442</v>
@@ -11207,55 +11230,55 @@
         <v>442</v>
       </c>
       <c r="AC100" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF100" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG100" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH100" s="3">
-        <v>37124</v>
+        <v>36759</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>439</v>
+        <v>401</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>228</v>
+        <v>402</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>220</v>
+        <v>398</v>
       </c>
       <c r="E101" s="2">
-        <f ca="1">DATEDIF(AH101,TODAY(),"Y")</f>
-        <v>14</v>
+        <f t="shared" ca="1" si="2"/>
+        <v>68</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>229</v>
+        <v>47</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>440</v>
+        <v>403</v>
       </c>
       <c r="I101" s="3">
-        <v>35236</v>
+        <v>31435</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>441</v>
@@ -11273,56 +11296,49 @@
         <v>42</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q101" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R101" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="S101" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="S101" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="T101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V101" s="2" t="s">
-        <v>171</v>
+        <v>442</v>
       </c>
       <c r="X101" s="2" t="s">
         <v>442</v>
       </c>
       <c r="Y101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z101" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AA101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH101" s="3">
-        <v>40774</v>
+        <v>21064</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12229,8 +12245,462 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A1:AH102" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:AH102" xr:uid="{00000000-0001-0000-0100-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH102">
+      <sortCondition ref="J1:J102"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42348EBB-4DB1-42D9-ABC6-98C49A1C08BB}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L11" sqref="A1:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F5" t="s">
+        <v>442</v>
+      </c>
+      <c r="G5" t="s">
+        <v>442</v>
+      </c>
+      <c r="H5" t="s">
+        <v>441</v>
+      </c>
+      <c r="I5" t="s">
+        <v>441</v>
+      </c>
+      <c r="J5" t="s">
+        <v>441</v>
+      </c>
+      <c r="K5" t="s">
+        <v>441</v>
+      </c>
+      <c r="L5" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C7" t="s">
+        <v>442</v>
+      </c>
+      <c r="D7" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" t="s">
+        <v>442</v>
+      </c>
+      <c r="G7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H7" t="s">
+        <v>441</v>
+      </c>
+      <c r="I7" t="s">
+        <v>441</v>
+      </c>
+      <c r="J7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K7" t="s">
+        <v>441</v>
+      </c>
+      <c r="L7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="C9" t="s">
+        <v>442</v>
+      </c>
+      <c r="D9" t="s">
+        <v>442</v>
+      </c>
+      <c r="E9" t="s">
+        <v>442</v>
+      </c>
+      <c r="F9" t="s">
+        <v>442</v>
+      </c>
+      <c r="G9" t="s">
+        <v>442</v>
+      </c>
+      <c r="H9" t="s">
+        <v>441</v>
+      </c>
+      <c r="I9" t="s">
+        <v>441</v>
+      </c>
+      <c r="J9" t="s">
+        <v>441</v>
+      </c>
+      <c r="K9" t="s">
+        <v>441</v>
+      </c>
+      <c r="L9" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D11" t="s">
+        <v>442</v>
+      </c>
+      <c r="E11" t="s">
+        <v>442</v>
+      </c>
+      <c r="F11" t="s">
+        <v>442</v>
+      </c>
+      <c r="G11" t="s">
+        <v>442</v>
+      </c>
+      <c r="H11" t="s">
+        <v>441</v>
+      </c>
+      <c r="I11" t="s">
+        <v>441</v>
+      </c>
+      <c r="J11" t="s">
+        <v>441</v>
+      </c>
+      <c r="K11" t="s">
+        <v>441</v>
+      </c>
+      <c r="L11" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:L7" xr:uid="{42348EBB-4DB1-42D9-ABC6-98C49A1C08BB}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L11">
+      <sortCondition ref="A1:A7"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/Oficial/estudantes_ficticios_corrigido_modelo.xlsx
+++ b/docs/Oficial/estudantes_ficticios_corrigido_modelo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/696b7a661993207c/Documents/GitHub/ministry-hub-sync/docs/Oficial/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\webbe\Documents\GitHub\ministry-hub-sync\docs\Oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="81" documentId="8_{2A8126F0-E242-44A5-A5D8-D6530F4DCE81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A98615D6-F441-47B9-B49A-B1954C593EDE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB40277B-FB25-41A4-8CF9-89CEDB883298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1688,33 +1688,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView topLeftCell="I85" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93:AG93"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:AH101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="31.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.42578125" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="24" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="14.140625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="30" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="19.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="16.140625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.5703125" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="37.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="15" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="38.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="36.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="12.85546875" bestFit="1" customWidth="1"/>
@@ -1833,41 +1833,41 @@
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>59</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>278</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E33" ca="1" si="0">DATEDIF(AH2,TODAY(),"Y")</f>
-        <v>57</v>
+        <f ca="1">DATEDIF(AH2,TODAY(),"Y")</f>
+        <v>73</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>279</v>
+        <v>61</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>280</v>
+        <v>62</v>
       </c>
       <c r="I2" s="3">
-        <v>43372</v>
+        <v>40556</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>281</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>445</v>
+        <v>63</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>41</v>
@@ -1876,16 +1876,13 @@
         <v>41</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>71</v>
+        <v>444</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
-      <c r="S2" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="T2" s="2" t="s">
         <v>441</v>
       </c>
@@ -1893,16 +1890,16 @@
         <v>442</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB2" s="2" t="s">
         <v>441</v>
@@ -1920,49 +1917,49 @@
         <v>441</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH2" s="3">
-        <v>25079</v>
+        <v>19239</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>282</v>
+        <v>58</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>288</v>
+        <v>250</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <f ca="1">DATEDIF(AH3,TODAY(),"Y")</f>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>289</v>
+        <v>251</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="I3" s="3">
-        <v>43315</v>
+        <v>41040</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="K3" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>41</v>
@@ -1971,16 +1968,15 @@
         <v>41</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="R3" s="2" t="s">
-        <v>283</v>
+        <v>43</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="T3" s="2" t="s">
         <v>441</v>
@@ -1989,19 +1985,19 @@
         <v>442</v>
       </c>
       <c r="X3" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y3" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z3" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA3" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>441</v>
@@ -2016,49 +2012,49 @@
         <v>441</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH3" s="3">
-        <v>29094</v>
+        <v>25809</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>303</v>
+        <v>245</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>304</v>
+        <v>246</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>119</v>
+        <v>35</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <f ca="1">DATEDIF(AH4,TODAY(),"Y")</f>
+        <v>54</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>305</v>
+        <v>247</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>306</v>
+        <v>248</v>
       </c>
       <c r="I4" s="3">
-        <v>35230</v>
+        <v>39285</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="K4" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2" t="s">
         <v>41</v>
@@ -2067,14 +2063,16 @@
         <v>41</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q4" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="R4" s="2" t="s">
-        <v>117</v>
+        <v>253</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2" t="s">
@@ -2084,19 +2082,19 @@
         <v>442</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA4" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>441</v>
@@ -2111,49 +2109,49 @@
         <v>441</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH4" s="3">
-        <v>34204</v>
+        <v>26174</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>330</v>
+        <v>249</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>325</v>
+        <v>250</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
+        <f ca="1">DATEDIF(AH5,TODAY(),"Y")</f>
+        <v>38</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>326</v>
+        <v>251</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="I5" s="3">
-        <v>38660</v>
+        <v>42711</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="K5" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>445</v>
+        <v>86</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>41</v>
@@ -2165,12 +2163,15 @@
         <v>64</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R5" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S5" s="2"/>
       <c r="T5" s="2" t="s">
         <v>441</v>
       </c>
@@ -2178,19 +2179,19 @@
         <v>442</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y5" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA5" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>441</v>
@@ -2205,49 +2206,49 @@
         <v>441</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH5" s="3">
-        <v>27977</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>328</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>35</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <f ca="1">DATEDIF(AH6,TODAY(),"Y")</f>
+        <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>329</v>
+        <v>56</v>
       </c>
       <c r="I6" s="3">
-        <v>33286</v>
+        <v>36784</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>281</v>
+        <v>57</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>445</v>
+        <v>50</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>41</v>
@@ -2256,15 +2257,16 @@
         <v>41</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>132</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
+      <c r="S6" s="2" t="s">
+        <v>253</v>
+      </c>
       <c r="T6" s="2" t="s">
         <v>441</v>
       </c>
@@ -2272,16 +2274,16 @@
         <v>442</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y6" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA6" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>441</v>
@@ -2302,46 +2304,46 @@
         <v>441</v>
       </c>
       <c r="AH6" s="3">
-        <v>36759</v>
+        <v>36394</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>345</v>
+        <v>58</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>349</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>350</v>
+        <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">DATEDIF(AH7,TODAY(),"Y")</f>
+        <v>26</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>351</v>
+        <v>37</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>352</v>
+        <v>38</v>
       </c>
       <c r="I7" s="3">
-        <v>43942</v>
+        <v>32592</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>281</v>
+        <v>39</v>
       </c>
       <c r="K7" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>445</v>
+        <v>40</v>
       </c>
       <c r="M7" s="2" t="s">
         <v>41</v>
@@ -2353,14 +2355,15 @@
         <v>64</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>332</v>
+        <v>53</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
         <v>441</v>
       </c>
@@ -2368,19 +2371,19 @@
         <v>442</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC7" s="2" t="s">
         <v>441</v>
@@ -2395,10 +2398,10 @@
         <v>441</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH7" s="3">
-        <v>32744</v>
+        <v>36394</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
@@ -2406,32 +2409,32 @@
         <v>58</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>241</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <f ca="1">DATEDIF(AH8,TODAY(),"Y")</f>
+        <v>23</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>61</v>
+        <v>242</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>62</v>
+        <v>243</v>
       </c>
       <c r="I8" s="3">
-        <v>40556</v>
+        <v>33341</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>49</v>
+        <v>244</v>
       </c>
       <c r="K8" s="2" t="s">
         <v>441</v>
@@ -2446,13 +2449,18 @@
         <v>41</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="S8" s="2"/>
       <c r="T8" s="2" t="s">
         <v>441</v>
       </c>
@@ -2472,10 +2480,10 @@
         <v>442</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC8" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD8" s="2" t="s">
         <v>441</v>
@@ -2484,13 +2492,13 @@
         <v>441</v>
       </c>
       <c r="AF8" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG8" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH8" s="3">
-        <v>19239</v>
+        <v>37489</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
@@ -2507,7 +2515,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" ca="1" si="0"/>
+        <f ca="1">DATEDIF(AH9,TODAY(),"Y")</f>
         <v>13</v>
       </c>
       <c r="F9" s="2" t="s">
@@ -2600,38 +2608,38 @@
         <v>72</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <f ca="1">DATEDIF(AH10,TODAY(),"Y")</f>
+        <v>74</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="I10" s="3">
-        <v>41747</v>
+        <v>33800</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K10" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M10" s="2" t="s">
         <v>41</v>
@@ -2640,17 +2648,12 @@
         <v>41</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="S10" s="2"/>
       <c r="T10" s="2" t="s">
         <v>441</v>
       </c>
@@ -2688,7 +2691,7 @@
         <v>442</v>
       </c>
       <c r="AH10" s="3">
-        <v>34934</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
@@ -2696,38 +2699,38 @@
         <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <f ca="1">DATEDIF(AH11,TODAY(),"Y")</f>
+        <v>52</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="I11" s="3">
-        <v>43660</v>
+        <v>29855</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M11" s="2" t="s">
         <v>41</v>
@@ -2736,28 +2739,19 @@
         <v>41</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R11" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>267</v>
       </c>
       <c r="T11" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>65</v>
+        <v>442</v>
       </c>
       <c r="X11" s="2" t="s">
         <v>442</v>
@@ -2787,49 +2781,49 @@
         <v>441</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH11" s="3">
-        <v>40774</v>
+        <v>26904</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <f ca="1">DATEDIF(AH12,TODAY(),"Y")</f>
+        <v>52</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="I12" s="3">
-        <v>44157</v>
+        <v>42665</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M12" s="2" t="s">
         <v>41</v>
@@ -2838,16 +2832,15 @@
         <v>41</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>283</v>
+        <v>43</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="T12" s="2" t="s">
         <v>441</v>
@@ -2886,46 +2879,46 @@
         <v>442</v>
       </c>
       <c r="AH12" s="3">
-        <v>29094</v>
+        <v>26904</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>282</v>
+        <v>72</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>291</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>292</v>
+        <v>74</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>17</v>
+        <f ca="1">DATEDIF(AH13,TODAY(),"Y")</f>
+        <v>34</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>293</v>
+        <v>75</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>294</v>
+        <v>76</v>
       </c>
       <c r="I13" s="3">
-        <v>39355</v>
+        <v>33364</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K13" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>41</v>
@@ -2940,17 +2933,16 @@
         <v>77</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>277</v>
+        <v>65</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="S13" s="2"/>
+        <v>267</v>
+      </c>
       <c r="T13" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X13" s="2" t="s">
         <v>442</v>
@@ -2983,46 +2975,46 @@
         <v>442</v>
       </c>
       <c r="AH13" s="3">
-        <v>39679</v>
+        <v>33474</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>131</v>
+        <v>72</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>314</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>315</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>24</v>
+        <f ca="1">DATEDIF(AH14,TODAY(),"Y")</f>
+        <v>34</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>316</v>
+        <v>84</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>317</v>
+        <v>85</v>
       </c>
       <c r="I14" s="3">
-        <v>44363</v>
+        <v>36682</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K14" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>41</v>
@@ -3034,14 +3026,16 @@
         <v>64</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="S14" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T14" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>442</v>
@@ -3059,7 +3053,7 @@
         <v>442</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>441</v>
@@ -3077,40 +3071,40 @@
         <v>442</v>
       </c>
       <c r="AH14" s="3">
-        <v>37124</v>
+        <v>33474</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>345</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>340</v>
+        <v>87</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>341</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>34</v>
+        <f ca="1">DATEDIF(AH15,TODAY(),"Y")</f>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>342</v>
+        <v>88</v>
       </c>
       <c r="I15" s="3">
-        <v>43445</v>
+        <v>43399</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K15" s="2" t="s">
         <v>441</v>
@@ -3125,18 +3119,17 @@
         <v>41</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="S15" s="2"/>
+        <v>267</v>
+      </c>
       <c r="T15" s="2" t="s">
         <v>441</v>
       </c>
@@ -3174,37 +3167,37 @@
         <v>442</v>
       </c>
       <c r="AH15" s="3">
-        <v>33474</v>
+        <v>34207</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>345</v>
+        <v>72</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>142</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>48</v>
+        <f ca="1">DATEDIF(AH16,TODAY(),"Y")</f>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="I16" s="3">
-        <v>43546</v>
+        <v>41747</v>
       </c>
       <c r="J16" s="2" t="s">
         <v>49</v>
@@ -3222,16 +3215,16 @@
         <v>41</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>332</v>
+        <v>65</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>140</v>
+        <v>267</v>
       </c>
       <c r="T16" s="2" t="s">
         <v>441</v>
@@ -3252,7 +3245,7 @@
         <v>442</v>
       </c>
       <c r="AB16" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC16" s="2" t="s">
         <v>441</v>
@@ -3270,46 +3263,46 @@
         <v>442</v>
       </c>
       <c r="AH16" s="3">
-        <v>28364</v>
+        <v>34934</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>355</v>
+        <v>72</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>259</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>164</v>
+        <v>260</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>156</v>
+        <v>67</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <f ca="1">DATEDIF(AH17,TODAY(),"Y")</f>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>165</v>
+        <v>261</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="I17" s="3">
-        <v>37460</v>
+        <v>40048</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M17" s="2" t="s">
         <v>41</v>
@@ -3321,12 +3314,14 @@
         <v>64</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="R17" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>267</v>
+      </c>
       <c r="T17" s="2" t="s">
         <v>441</v>
       </c>
@@ -3346,7 +3341,7 @@
         <v>442</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC17" s="2" t="s">
         <v>441</v>
@@ -3364,37 +3359,37 @@
         <v>442</v>
       </c>
       <c r="AH17" s="3">
-        <v>34936</v>
+        <v>36029</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>201</v>
+        <v>72</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>416</v>
+        <v>78</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>417</v>
+        <v>79</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>197</v>
+        <v>67</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <f ca="1">DATEDIF(AH18,TODAY(),"Y")</f>
+        <v>14</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>418</v>
+        <v>80</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>419</v>
+        <v>81</v>
       </c>
       <c r="I18" s="3">
-        <v>45226</v>
+        <v>43660</v>
       </c>
       <c r="J18" s="2" t="s">
         <v>49</v>
@@ -3403,7 +3398,7 @@
         <v>441</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M18" s="2" t="s">
         <v>41</v>
@@ -3412,21 +3407,28 @@
         <v>41</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2" t="s">
-        <v>202</v>
+        <v>52</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>267</v>
       </c>
       <c r="T18" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="X18" s="2" t="s">
         <v>442</v>
@@ -3441,7 +3443,7 @@
         <v>442</v>
       </c>
       <c r="AB18" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC18" s="2" t="s">
         <v>441</v>
@@ -3459,46 +3461,46 @@
         <v>442</v>
       </c>
       <c r="AH18" s="3">
-        <v>20334</v>
+        <v>40774</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>201</v>
+        <v>274</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>404</v>
+        <v>275</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>405</v>
+        <v>270</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <f ca="1">DATEDIF(AH19,TODAY(),"Y")</f>
+        <v>72</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>406</v>
+        <v>147</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>407</v>
+        <v>276</v>
       </c>
       <c r="I19" s="3">
-        <v>43759</v>
+        <v>40903</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M19" s="2" t="s">
         <v>41</v>
@@ -3507,18 +3509,13 @@
         <v>41</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="S19" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
       <c r="T19" s="2" t="s">
         <v>441</v>
       </c>
@@ -3556,46 +3553,46 @@
         <v>442</v>
       </c>
       <c r="AH19" s="3">
-        <v>33839</v>
+        <v>19604</v>
       </c>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>214</v>
+        <v>90</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>215</v>
+        <v>91</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>21</v>
+        <f ca="1">DATEDIF(AH20,TODAY(),"Y")</f>
+        <v>52</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>216</v>
+        <v>93</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="I20" s="3">
-        <v>44441</v>
+        <v>45153</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K20" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="M20" s="2" t="s">
         <v>41</v>
@@ -3607,12 +3604,13 @@
         <v>64</v>
       </c>
       <c r="P20" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="R20" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S20" s="2"/>
       <c r="T20" s="2" t="s">
         <v>441</v>
       </c>
@@ -3632,7 +3630,7 @@
         <v>442</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC20" s="2" t="s">
         <v>441</v>
@@ -3650,46 +3648,46 @@
         <v>442</v>
       </c>
       <c r="AH20" s="3">
-        <v>38219</v>
+        <v>26904</v>
       </c>
     </row>
     <row r="21" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>424</v>
+        <v>274</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>425</v>
+        <v>272</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <f ca="1">DATEDIF(AH21,TODAY(),"Y")</f>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>212</v>
+        <v>93</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>426</v>
+        <v>273</v>
       </c>
       <c r="I21" s="3">
-        <v>41852</v>
+        <v>30675</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K21" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M21" s="2" t="s">
         <v>41</v>
@@ -3701,12 +3699,12 @@
         <v>64</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="R21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="S21" s="2"/>
       <c r="T21" s="2" t="s">
         <v>441</v>
       </c>
@@ -3726,7 +3724,7 @@
         <v>442</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>441</v>
@@ -3744,40 +3742,40 @@
         <v>442</v>
       </c>
       <c r="AH21" s="3">
-        <v>24714</v>
+        <v>29824</v>
       </c>
     </row>
     <row r="22" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>223</v>
+        <v>269</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <f ca="1">DATEDIF(AH22,TODAY(),"Y")</f>
+        <v>41</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="I22" s="3">
-        <v>41194</v>
+        <v>39640</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K22" s="2" t="s">
         <v>441</v>
@@ -3792,16 +3790,13 @@
         <v>41</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>232</v>
+        <v>77</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="2" t="s">
@@ -3823,7 +3818,7 @@
         <v>442</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>441</v>
@@ -3841,46 +3836,46 @@
         <v>442</v>
       </c>
       <c r="AH22" s="3">
-        <v>35664</v>
+        <v>30919</v>
       </c>
     </row>
     <row r="23" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>427</v>
+        <v>95</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>428</v>
+        <v>96</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>58</v>
+        <f ca="1">DATEDIF(AH23,TODAY(),"Y")</f>
+        <v>19</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>429</v>
+        <v>97</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>430</v>
+        <v>98</v>
       </c>
       <c r="I23" s="3">
-        <v>43027</v>
+        <v>39638</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="K23" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M23" s="2" t="s">
         <v>41</v>
@@ -3889,20 +3884,18 @@
         <v>41</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q23" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" s="2" t="s">
-        <v>435</v>
+        <v>275</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U23" s="2" t="s">
         <v>442</v>
@@ -3938,40 +3931,40 @@
         <v>442</v>
       </c>
       <c r="AH23" s="3">
-        <v>24714</v>
+        <v>38949</v>
       </c>
     </row>
     <row r="24" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>227</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>228</v>
+        <v>91</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>220</v>
+        <v>92</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <f ca="1">DATEDIF(AH24,TODAY(),"Y")</f>
+        <v>18</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>229</v>
+        <v>93</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>230</v>
+        <v>101</v>
       </c>
       <c r="I24" s="3">
-        <v>36783</v>
+        <v>43892</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="K24" s="2" t="s">
         <v>441</v>
@@ -3986,18 +3979,15 @@
         <v>41</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>232</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="S24" s="2"/>
+        <v>275</v>
+      </c>
       <c r="T24" s="2" t="s">
         <v>441</v>
       </c>
@@ -4017,7 +4007,7 @@
         <v>442</v>
       </c>
       <c r="AB24" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC24" s="2" t="s">
         <v>441</v>
@@ -4035,37 +4025,37 @@
         <v>442</v>
       </c>
       <c r="AH24" s="3">
-        <v>21429</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="25" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>283</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>34</v>
+        <v>284</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>26</v>
+        <f ca="1">DATEDIF(AH25,TODAY(),"Y")</f>
+        <v>61</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="I25" s="3">
-        <v>32592</v>
+        <v>40581</v>
       </c>
       <c r="J25" s="2" t="s">
         <v>39</v>
@@ -4074,7 +4064,7 @@
         <v>441</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>41</v>
@@ -4083,18 +4073,16 @@
         <v>41</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R25" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S25" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2" t="s">
+        <v>277</v>
+      </c>
       <c r="T25" s="2" t="s">
         <v>441</v>
       </c>
@@ -4132,46 +4120,46 @@
         <v>442</v>
       </c>
       <c r="AH25" s="3">
-        <v>36394</v>
+        <v>23619</v>
       </c>
     </row>
     <row r="26" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <f ca="1">DATEDIF(AH26,TODAY(),"Y")</f>
+        <v>57</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="I26" s="3">
-        <v>41040</v>
+        <v>43372</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="K26" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>41</v>
@@ -4183,12 +4171,12 @@
         <v>42</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2" t="s">
-        <v>53</v>
+        <v>283</v>
       </c>
       <c r="T26" s="2" t="s">
         <v>441</v>
@@ -4197,19 +4185,19 @@
         <v>442</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC26" s="2" t="s">
         <v>441</v>
@@ -4224,49 +4212,49 @@
         <v>441</v>
       </c>
       <c r="AG26" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH26" s="3">
-        <v>25809</v>
+        <v>25079</v>
       </c>
     </row>
     <row r="27" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>249</v>
+        <v>287</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <f ca="1">DATEDIF(AH27,TODAY(),"Y")</f>
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>251</v>
+        <v>289</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="I27" s="3">
-        <v>42711</v>
+        <v>43315</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>86</v>
+        <v>445</v>
       </c>
       <c r="M27" s="2" t="s">
         <v>41</v>
@@ -4275,18 +4263,17 @@
         <v>41</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P27" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="R27" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S27" s="2"/>
+        <v>283</v>
+      </c>
       <c r="T27" s="2" t="s">
         <v>441</v>
       </c>
@@ -4294,19 +4281,19 @@
         <v>442</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>441</v>
@@ -4321,49 +4308,49 @@
         <v>441</v>
       </c>
       <c r="AG27" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH27" s="3">
-        <v>32014</v>
+        <v>29094</v>
       </c>
     </row>
     <row r="28" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>58</v>
+        <v>282</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>245</v>
+        <v>295</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>54</v>
+        <f ca="1">DATEDIF(AH28,TODAY(),"Y")</f>
+        <v>46</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>248</v>
+        <v>296</v>
       </c>
       <c r="I28" s="3">
-        <v>39285</v>
+        <v>44157</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M28" s="2" t="s">
         <v>41</v>
@@ -4372,18 +4359,17 @@
         <v>41</v>
       </c>
       <c r="O28" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P28" s="2" t="s">
         <v>77</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="R28" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S28" s="2"/>
+        <v>283</v>
+      </c>
       <c r="T28" s="2" t="s">
         <v>441</v>
       </c>
@@ -4421,7 +4407,7 @@
         <v>442</v>
       </c>
       <c r="AH28" s="3">
-        <v>26174</v>
+        <v>29094</v>
       </c>
     </row>
     <row r="29" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4429,32 +4415,32 @@
         <v>282</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>283</v>
+        <v>112</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <f ca="1">DATEDIF(AH29,TODAY(),"Y")</f>
+        <v>44</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>285</v>
+        <v>114</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>286</v>
+        <v>115</v>
       </c>
       <c r="I29" s="3">
-        <v>40581</v>
+        <v>45274</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K29" s="2" t="s">
         <v>441</v>
@@ -4469,16 +4455,17 @@
         <v>41</v>
       </c>
       <c r="O29" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P29" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="S29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>277</v>
       </c>
+      <c r="R29" s="2" t="s">
+        <v>283</v>
+      </c>
       <c r="T29" s="2" t="s">
         <v>441</v>
       </c>
@@ -4498,7 +4485,7 @@
         <v>442</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC29" s="2" t="s">
         <v>441</v>
@@ -4513,10 +4500,10 @@
         <v>441</v>
       </c>
       <c r="AG29" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH29" s="3">
-        <v>23619</v>
+        <v>29824</v>
       </c>
     </row>
     <row r="30" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -4524,38 +4511,38 @@
         <v>282</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <f ca="1">DATEDIF(AH30,TODAY(),"Y")</f>
+        <v>41</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I30" s="3">
-        <v>35265</v>
+        <v>30409</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K30" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M30" s="2" t="s">
         <v>41</v>
@@ -4586,7 +4573,7 @@
         <v>442</v>
       </c>
       <c r="Y30" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z30" s="2" t="s">
         <v>442</v>
@@ -4610,40 +4597,40 @@
         <v>441</v>
       </c>
       <c r="AG30" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH30" s="3">
-        <v>35299</v>
+        <v>30919</v>
       </c>
     </row>
     <row r="31" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>131</v>
+        <v>282</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>318</v>
+        <v>107</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <f ca="1">DATEDIF(AH31,TODAY(),"Y")</f>
+        <v>29</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>319</v>
+        <v>110</v>
       </c>
       <c r="I31" s="3">
-        <v>30870</v>
+        <v>35265</v>
       </c>
       <c r="J31" s="2" t="s">
         <v>39</v>
@@ -4652,7 +4639,7 @@
         <v>441</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M31" s="2" t="s">
         <v>41</v>
@@ -4667,7 +4654,10 @@
         <v>52</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>132</v>
+        <v>277</v>
+      </c>
+      <c r="R31" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="2" t="s">
@@ -4680,7 +4670,7 @@
         <v>442</v>
       </c>
       <c r="Y31" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z31" s="2" t="s">
         <v>442</v>
@@ -4689,7 +4679,7 @@
         <v>442</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC31" s="2" t="s">
         <v>441</v>
@@ -4704,49 +4694,49 @@
         <v>441</v>
       </c>
       <c r="AG31" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH31" s="3">
-        <v>39314</v>
+        <v>35299</v>
       </c>
     </row>
     <row r="32" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>345</v>
+        <v>282</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>142</v>
+        <v>104</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>38</v>
+        <f ca="1">DATEDIF(AH32,TODAY(),"Y")</f>
+        <v>17</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="I32" s="3">
-        <v>34201</v>
+        <v>39355</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="K32" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="M32" s="2" t="s">
         <v>41</v>
@@ -4755,29 +4745,29 @@
         <v>41</v>
       </c>
       <c r="O32" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P32" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>332</v>
+        <v>277</v>
       </c>
       <c r="R32" s="2" t="s">
-        <v>140</v>
+        <v>283</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X32" s="2" t="s">
         <v>442</v>
       </c>
       <c r="Y32" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z32" s="2" t="s">
         <v>442</v>
@@ -4786,7 +4776,7 @@
         <v>442</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC32" s="2" t="s">
         <v>441</v>
@@ -4801,49 +4791,49 @@
         <v>441</v>
       </c>
       <c r="AG32" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH32" s="3">
-        <v>32014</v>
+        <v>39679</v>
       </c>
     </row>
     <row r="33" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>345</v>
+        <v>116</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>343</v>
+        <v>117</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>337</v>
+        <v>118</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <f ca="1">DATEDIF(AH33,TODAY(),"Y")</f>
+        <v>60</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>338</v>
+        <v>120</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>344</v>
+        <v>121</v>
       </c>
       <c r="I33" s="3">
-        <v>37037</v>
+        <v>34753</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K33" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M33" s="2" t="s">
         <v>41</v>
@@ -4852,17 +4842,12 @@
         <v>41</v>
       </c>
       <c r="O33" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P33" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>140</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="S33" s="2"/>
       <c r="T33" s="2" t="s">
         <v>441</v>
       </c>
@@ -4873,7 +4858,7 @@
         <v>442</v>
       </c>
       <c r="Y33" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z33" s="2" t="s">
         <v>442</v>
@@ -4882,7 +4867,7 @@
         <v>442</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC33" s="2" t="s">
         <v>441</v>
@@ -4897,49 +4882,49 @@
         <v>441</v>
       </c>
       <c r="AG33" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH33" s="3">
-        <v>35299</v>
+        <v>23984</v>
       </c>
     </row>
     <row r="34" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>345</v>
+        <v>116</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>145</v>
+        <v>301</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>146</v>
+        <v>298</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" ref="E34:E65" ca="1" si="1">DATEDIF(AH34,TODAY(),"Y")</f>
-        <v>10</v>
+        <f ca="1">DATEDIF(AH34,TODAY(),"Y")</f>
+        <v>43</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>147</v>
+        <v>299</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>148</v>
+        <v>302</v>
       </c>
       <c r="I34" s="3">
-        <v>34500</v>
+        <v>39266</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K34" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>50</v>
+        <v>99</v>
       </c>
       <c r="M34" s="2" t="s">
         <v>41</v>
@@ -4951,19 +4936,17 @@
         <v>51</v>
       </c>
       <c r="P34" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>332</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q34" s="2"/>
       <c r="R34" s="2" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
       <c r="T34" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X34" s="2" t="s">
         <v>442</v>
@@ -4978,7 +4961,7 @@
         <v>442</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC34" s="2" t="s">
         <v>441</v>
@@ -4996,46 +4979,46 @@
         <v>442</v>
       </c>
       <c r="AH34" s="3">
-        <v>42234</v>
+        <v>30189</v>
       </c>
     </row>
     <row r="35" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>355</v>
+        <v>116</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>357</v>
+        <v>311</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>54</v>
+        <f ca="1">DATEDIF(AH35,TODAY(),"Y")</f>
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>358</v>
+        <v>312</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="I35" s="3">
-        <v>39744</v>
+        <v>44616</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="K35" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M35" s="2" t="s">
         <v>41</v>
@@ -5047,10 +5030,12 @@
         <v>42</v>
       </c>
       <c r="P35" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="2"/>
-      <c r="R35" s="2"/>
+      <c r="R35" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="S35" s="2"/>
       <c r="T35" s="2" t="s">
         <v>441</v>
@@ -5062,7 +5047,7 @@
         <v>442</v>
       </c>
       <c r="Y35" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z35" s="2" t="s">
         <v>442</v>
@@ -5071,7 +5056,7 @@
         <v>442</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC35" s="2" t="s">
         <v>441</v>
@@ -5086,49 +5071,49 @@
         <v>441</v>
       </c>
       <c r="AG35" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH35" s="3">
-        <v>26174</v>
+        <v>32379</v>
       </c>
     </row>
     <row r="36" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>180</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>181</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>177</v>
+        <v>119</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <f ca="1">DATEDIF(AH36,TODAY(),"Y")</f>
+        <v>36</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>183</v>
+        <v>299</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
       <c r="I36" s="3">
-        <v>31574</v>
+        <v>30165</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="K36" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M36" s="2" t="s">
         <v>41</v>
@@ -5137,15 +5122,17 @@
         <v>41</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q36" s="2"/>
-      <c r="R36" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="S36" s="2"/>
       <c r="T36" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U36" s="2" t="s">
         <v>442</v>
@@ -5163,64 +5150,64 @@
         <v>442</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC36" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD36" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AE36" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF36" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG36" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH36" s="3">
-        <v>18509</v>
+        <v>32744</v>
       </c>
     </row>
     <row r="37" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>201</v>
+        <v>116</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>195</v>
+        <v>303</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>196</v>
+        <v>304</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>197</v>
+        <v>119</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>57</v>
+        <f ca="1">DATEDIF(AH37,TODAY(),"Y")</f>
+        <v>32</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>198</v>
+        <v>305</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>199</v>
+        <v>306</v>
       </c>
       <c r="I37" s="3">
-        <v>33437</v>
+        <v>35230</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>39</v>
+        <v>281</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>63</v>
+        <v>445</v>
       </c>
       <c r="M37" s="2" t="s">
         <v>41</v>
@@ -5229,17 +5216,16 @@
         <v>41</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q37" s="2" t="s">
-        <v>202</v>
-      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" s="2" t="s">
-        <v>416</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="S37" s="2"/>
       <c r="T37" s="2" t="s">
         <v>441</v>
       </c>
@@ -5247,16 +5233,16 @@
         <v>442</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y37" s="2" t="s">
         <v>441</v>
       </c>
       <c r="Z37" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA37" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB37" s="2" t="s">
         <v>441</v>
@@ -5277,40 +5263,40 @@
         <v>441</v>
       </c>
       <c r="AH37" s="3">
-        <v>25082</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="38" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>424</v>
+        <v>116</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>205</v>
+        <v>307</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>206</v>
+        <v>308</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <f ca="1">DATEDIF(AH38,TODAY(),"Y")</f>
+        <v>27</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>209</v>
+        <v>309</v>
       </c>
       <c r="I38" s="3">
-        <v>44131</v>
+        <v>30724</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="K38" s="2" t="s">
         <v>441</v>
@@ -5325,17 +5311,17 @@
         <v>41</v>
       </c>
       <c r="O38" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q38" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="S38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="T38" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U38" s="2" t="s">
         <v>442</v>
@@ -5353,64 +5339,64 @@
         <v>442</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC38" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD38" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF38" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AG38" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH38" s="3">
-        <v>34204</v>
+        <v>36029</v>
       </c>
     </row>
     <row r="39" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>424</v>
+        <v>116</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>420</v>
+        <v>122</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>421</v>
+        <v>123</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>207</v>
+        <v>119</v>
       </c>
       <c r="E39" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">DATEDIF(AH39,TODAY(),"Y")</f>
         <v>10</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>422</v>
+        <v>124</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>423</v>
+        <v>125</v>
       </c>
       <c r="I39" s="3">
-        <v>32379</v>
+        <v>35733</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K39" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M39" s="2" t="s">
         <v>41</v>
@@ -5422,27 +5408,23 @@
         <v>64</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="T39" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U39" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="V39" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="X39" s="2" t="s">
         <v>442</v>
       </c>
       <c r="Y39" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z39" s="2" t="s">
         <v>442</v>
@@ -5451,7 +5433,7 @@
         <v>442</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC39" s="2" t="s">
         <v>441</v>
@@ -5466,7 +5448,7 @@
         <v>441</v>
       </c>
       <c r="AG39" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH39" s="3">
         <v>42234</v>
@@ -5474,41 +5456,41 @@
     </row>
     <row r="40" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>435</v>
+        <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>436</v>
+        <v>133</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="E40" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <f ca="1">DATEDIF(AH40,TODAY(),"Y")</f>
+        <v>73</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>437</v>
+        <v>134</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>438</v>
+        <v>135</v>
       </c>
       <c r="I40" s="3">
-        <v>33248</v>
+        <v>38881</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="K40" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M40" s="2" t="s">
         <v>41</v>
@@ -5517,16 +5499,14 @@
         <v>41</v>
       </c>
       <c r="O40" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P40" s="2" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="S40" s="2"/>
       <c r="T40" s="2" t="s">
         <v>441</v>
       </c>
@@ -5546,7 +5526,7 @@
         <v>442</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC40" s="2" t="s">
         <v>441</v>
@@ -5564,40 +5544,40 @@
         <v>442</v>
       </c>
       <c r="AH40" s="3">
-        <v>20334</v>
+        <v>19239</v>
       </c>
     </row>
     <row r="41" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>439</v>
+        <v>320</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>228</v>
+        <v>321</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>220</v>
+        <v>128</v>
       </c>
       <c r="E41" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <f ca="1">DATEDIF(AH41,TODAY(),"Y")</f>
+        <v>60</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>229</v>
+        <v>322</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>440</v>
+        <v>323</v>
       </c>
       <c r="I41" s="3">
-        <v>35236</v>
+        <v>34208</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>39</v>
+        <v>244</v>
       </c>
       <c r="K41" s="2" t="s">
         <v>441</v>
@@ -5612,26 +5592,21 @@
         <v>41</v>
       </c>
       <c r="O41" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P41" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R41" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V41" s="2" t="s">
-        <v>171</v>
+        <v>442</v>
       </c>
       <c r="X41" s="2" t="s">
         <v>442</v>
@@ -5640,70 +5615,70 @@
         <v>441</v>
       </c>
       <c r="Z41" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA41" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC41" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD41" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE41" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF41" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG41" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH41" s="3">
-        <v>40774</v>
+        <v>23984</v>
       </c>
     </row>
     <row r="42" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>58</v>
+        <v>131</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>53</v>
+        <v>330</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>54</v>
+        <v>325</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="E42" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">DATEDIF(AH42,TODAY(),"Y")</f>
+        <v>49</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>55</v>
+        <v>326</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>56</v>
+        <v>331</v>
       </c>
       <c r="I42" s="3">
-        <v>36784</v>
+        <v>38660</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="K42" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="M42" s="2" t="s">
         <v>41</v>
@@ -5712,16 +5687,15 @@
         <v>41</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q42" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>132</v>
+      </c>
       <c r="R42" s="2"/>
-      <c r="S42" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="T42" s="2" t="s">
         <v>441</v>
       </c>
@@ -5729,16 +5703,16 @@
         <v>442</v>
       </c>
       <c r="X42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA42" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB42" s="2" t="s">
         <v>441</v>
@@ -5759,46 +5733,46 @@
         <v>441</v>
       </c>
       <c r="AH42" s="3">
-        <v>36394</v>
+        <v>27977</v>
       </c>
     </row>
     <row r="43" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>259</v>
+        <v>324</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>260</v>
+        <v>325</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E43" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <f ca="1">DATEDIF(AH43,TODAY(),"Y")</f>
+        <v>48</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>262</v>
+        <v>327</v>
       </c>
       <c r="I43" s="3">
-        <v>40048</v>
+        <v>41691</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="K43" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M43" s="2" t="s">
         <v>41</v>
@@ -5810,14 +5784,12 @@
         <v>64</v>
       </c>
       <c r="P43" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R43" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="R43" s="2"/>
       <c r="T43" s="2" t="s">
         <v>441</v>
       </c>
@@ -5837,55 +5809,55 @@
         <v>442</v>
       </c>
       <c r="AB43" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC43" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD43" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE43" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF43" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG43" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH43" s="3">
-        <v>36029</v>
+        <v>28364</v>
       </c>
     </row>
     <row r="44" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>255</v>
+        <v>126</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>256</v>
+        <v>127</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E44" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <f ca="1">DATEDIF(AH44,TODAY(),"Y")</f>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>257</v>
+        <v>129</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
       <c r="I44" s="3">
-        <v>33800</v>
+        <v>42140</v>
       </c>
       <c r="J44" s="2" t="s">
         <v>57</v>
@@ -5903,12 +5875,15 @@
         <v>41</v>
       </c>
       <c r="O44" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P44" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="S44" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R44" s="2"/>
       <c r="T44" s="2" t="s">
         <v>441</v>
       </c>
@@ -5946,46 +5921,46 @@
         <v>442</v>
       </c>
       <c r="AH44" s="3">
-        <v>18874</v>
+        <v>30554</v>
       </c>
     </row>
     <row r="45" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>65</v>
+        <v>328</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E45" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <f ca="1">DATEDIF(AH45,TODAY(),"Y")</f>
+        <v>25</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>69</v>
+        <v>329</v>
       </c>
       <c r="I45" s="3">
-        <v>29855</v>
+        <v>33286</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="K45" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>70</v>
+        <v>445</v>
       </c>
       <c r="M45" s="2" t="s">
         <v>41</v>
@@ -5994,14 +5969,15 @@
         <v>41</v>
       </c>
       <c r="O45" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P45" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S45" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R45" s="2"/>
       <c r="T45" s="2" t="s">
         <v>441</v>
       </c>
@@ -6009,16 +5985,16 @@
         <v>442</v>
       </c>
       <c r="X45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA45" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB45" s="2" t="s">
         <v>441</v>
@@ -6039,40 +6015,40 @@
         <v>441</v>
       </c>
       <c r="AH45" s="3">
-        <v>26904</v>
+        <v>36759</v>
       </c>
     </row>
     <row r="46" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>74</v>
+        <v>315</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E46" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <f ca="1">DATEDIF(AH46,TODAY(),"Y")</f>
+        <v>24</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>75</v>
+        <v>316</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>76</v>
+        <v>317</v>
       </c>
       <c r="I46" s="3">
-        <v>33364</v>
+        <v>44363</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K46" s="2" t="s">
         <v>441</v>
@@ -6090,16 +6066,14 @@
         <v>64</v>
       </c>
       <c r="P46" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R46" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="S46" s="2"/>
       <c r="T46" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U46" s="2" t="s">
         <v>442</v>
@@ -6117,7 +6091,7 @@
         <v>442</v>
       </c>
       <c r="AB46" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC46" s="2" t="s">
         <v>441</v>
@@ -6135,37 +6109,37 @@
         <v>442</v>
       </c>
       <c r="AH46" s="3">
-        <v>33474</v>
+        <v>37124</v>
       </c>
     </row>
     <row r="47" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>83</v>
+        <v>137</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="E47" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <f ca="1">DATEDIF(AH47,TODAY(),"Y")</f>
+        <v>22</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="I47" s="3">
-        <v>36682</v>
+        <v>43525</v>
       </c>
       <c r="J47" s="2" t="s">
         <v>57</v>
@@ -6174,7 +6148,7 @@
         <v>441</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M47" s="2" t="s">
         <v>41</v>
@@ -6186,14 +6160,12 @@
         <v>64</v>
       </c>
       <c r="P47" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R47" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="R47" s="2"/>
       <c r="T47" s="2" t="s">
         <v>441</v>
       </c>
@@ -6231,46 +6203,46 @@
         <v>442</v>
       </c>
       <c r="AH47" s="3">
-        <v>33474</v>
+        <v>37854</v>
       </c>
     </row>
     <row r="48" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>274</v>
+        <v>131</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>95</v>
+        <v>318</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="E48" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <f ca="1">DATEDIF(AH48,TODAY(),"Y")</f>
+        <v>18</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>97</v>
+        <v>129</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>98</v>
+        <v>319</v>
       </c>
       <c r="I48" s="3">
-        <v>39638</v>
+        <v>30870</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="K48" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M48" s="2" t="s">
         <v>41</v>
@@ -6282,11 +6254,10 @@
         <v>64</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2" t="s">
-        <v>275</v>
+        <v>52</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="2" t="s">
@@ -6326,37 +6297,37 @@
         <v>442</v>
       </c>
       <c r="AH48" s="3">
-        <v>38949</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="49" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>275</v>
+        <v>346</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>270</v>
+        <v>347</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="E49" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <f ca="1">DATEDIF(AH49,TODAY(),"Y")</f>
+        <v>80</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>147</v>
+        <v>93</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>276</v>
+        <v>348</v>
       </c>
       <c r="I49" s="3">
-        <v>40903</v>
+        <v>38254</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>57</v>
@@ -6365,7 +6336,7 @@
         <v>441</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M49" s="2" t="s">
         <v>41</v>
@@ -6377,7 +6348,7 @@
         <v>51</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>43</v>
+        <v>444</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
@@ -6418,46 +6389,46 @@
         <v>442</v>
       </c>
       <c r="AH49" s="3">
-        <v>19604</v>
+        <v>16682</v>
       </c>
     </row>
     <row r="50" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>274</v>
+        <v>345</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>269</v>
+        <v>332</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="E50" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <f ca="1">DATEDIF(AH50,TODAY(),"Y")</f>
+        <v>62</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>147</v>
+        <v>334</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>271</v>
+        <v>335</v>
       </c>
       <c r="I50" s="3">
-        <v>39640</v>
+        <v>39712</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="K50" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M50" s="2" t="s">
         <v>41</v>
@@ -6466,15 +6437,14 @@
         <v>41</v>
       </c>
       <c r="O50" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P50" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S50" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="T50" s="2" t="s">
         <v>441</v>
       </c>
@@ -6497,52 +6467,52 @@
         <v>442</v>
       </c>
       <c r="AC50" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD50" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE50" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF50" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG50" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH50" s="3">
-        <v>30919</v>
+        <v>23251</v>
       </c>
     </row>
     <row r="51" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>282</v>
+        <v>345</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>113</v>
+        <v>141</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="E51" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <f ca="1">DATEDIF(AH51,TODAY(),"Y")</f>
+        <v>60</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>114</v>
+        <v>143</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="I51" s="3">
-        <v>45274</v>
+        <v>31464</v>
       </c>
       <c r="J51" s="2" t="s">
         <v>57</v>
@@ -6551,7 +6521,7 @@
         <v>441</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M51" s="2" t="s">
         <v>41</v>
@@ -6560,16 +6530,15 @@
         <v>41</v>
       </c>
       <c r="O51" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P51" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="R51" s="2" t="s">
-        <v>283</v>
+        <v>43</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="T51" s="2" t="s">
         <v>441</v>
@@ -6590,7 +6559,7 @@
         <v>442</v>
       </c>
       <c r="AB51" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC51" s="2" t="s">
         <v>441</v>
@@ -6605,43 +6574,43 @@
         <v>441</v>
       </c>
       <c r="AG51" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH51" s="3">
-        <v>29824</v>
+        <v>23986</v>
       </c>
     </row>
     <row r="52" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>345</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>310</v>
+        <v>149</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>311</v>
+        <v>150</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>119</v>
+        <v>142</v>
       </c>
       <c r="E52" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <f ca="1">DATEDIF(AH52,TODAY(),"Y")</f>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>313</v>
+        <v>152</v>
       </c>
       <c r="I52" s="3">
-        <v>44616</v>
+        <v>43546</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K52" s="2" t="s">
         <v>441</v>
@@ -6656,16 +6625,17 @@
         <v>41</v>
       </c>
       <c r="O52" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P52" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q52" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="R52" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="S52" s="2"/>
+        <v>140</v>
+      </c>
       <c r="T52" s="2" t="s">
         <v>441</v>
       </c>
@@ -6685,7 +6655,7 @@
         <v>442</v>
       </c>
       <c r="AB52" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC52" s="2" t="s">
         <v>441</v>
@@ -6703,63 +6673,66 @@
         <v>442</v>
       </c>
       <c r="AH52" s="3">
-        <v>32379</v>
+        <v>28364</v>
       </c>
     </row>
     <row r="53" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>126</v>
+        <v>336</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>127</v>
+        <v>337</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E53" s="2">
-        <f t="shared" ca="1" si="1"/>
+        <f ca="1">DATEDIF(AH53,TODAY(),"Y")</f>
+        <v>38</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I53" s="3">
+        <v>34201</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="O53" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="I53" s="3">
-        <v>42140</v>
-      </c>
-      <c r="J53" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="L53" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="N53" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="O53" s="2" t="s">
-        <v>64</v>
       </c>
       <c r="P53" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q53" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R53" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S53" s="2"/>
       <c r="T53" s="2" t="s">
         <v>441</v>
       </c>
@@ -6770,7 +6743,7 @@
         <v>442</v>
       </c>
       <c r="Y53" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z53" s="2" t="s">
         <v>442</v>
@@ -6779,7 +6752,7 @@
         <v>442</v>
       </c>
       <c r="AB53" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC53" s="2" t="s">
         <v>441</v>
@@ -6794,49 +6767,49 @@
         <v>441</v>
       </c>
       <c r="AG53" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH53" s="3">
-        <v>30554</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="54" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>136</v>
+        <v>349</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>137</v>
+        <v>350</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E54" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <f ca="1">DATEDIF(AH54,TODAY(),"Y")</f>
+        <v>36</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>138</v>
+        <v>351</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>139</v>
+        <v>352</v>
       </c>
       <c r="I54" s="3">
-        <v>43525</v>
+        <v>43942</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>57</v>
+        <v>281</v>
       </c>
       <c r="K54" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="M54" s="2" t="s">
         <v>41</v>
@@ -6851,9 +6824,11 @@
         <v>52</v>
       </c>
       <c r="Q54" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R54" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="T54" s="2" t="s">
         <v>441</v>
       </c>
@@ -6861,19 +6836,19 @@
         <v>442</v>
       </c>
       <c r="X54" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y54" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z54" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA54" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB54" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC54" s="2" t="s">
         <v>441</v>
@@ -6888,10 +6863,10 @@
         <v>441</v>
       </c>
       <c r="AG54" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH54" s="3">
-        <v>37854</v>
+        <v>32744</v>
       </c>
     </row>
     <row r="55" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6899,38 +6874,38 @@
         <v>345</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>140</v>
+        <v>340</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>141</v>
+        <v>341</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E55" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <f ca="1">DATEDIF(AH55,TODAY(),"Y")</f>
+        <v>34</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>143</v>
+        <v>97</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="I55" s="3">
-        <v>31464</v>
+        <v>43445</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M55" s="2" t="s">
         <v>41</v>
@@ -6942,13 +6917,15 @@
         <v>42</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>332</v>
       </c>
+      <c r="R55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="S55" s="2"/>
       <c r="T55" s="2" t="s">
         <v>441</v>
       </c>
@@ -6986,7 +6963,7 @@
         <v>442</v>
       </c>
       <c r="AH55" s="3">
-        <v>23986</v>
+        <v>33474</v>
       </c>
     </row>
     <row r="56" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6994,38 +6971,38 @@
         <v>345</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>142</v>
       </c>
       <c r="E56" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <f ca="1">DATEDIF(AH56,TODAY(),"Y")</f>
+        <v>29</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>93</v>
+        <v>338</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="I56" s="3">
-        <v>38254</v>
+        <v>37037</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="K56" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M56" s="2" t="s">
         <v>41</v>
@@ -7037,10 +7014,14 @@
         <v>51</v>
       </c>
       <c r="P56" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q56" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="R56" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="T56" s="2" t="s">
         <v>441</v>
       </c>
@@ -7051,7 +7032,7 @@
         <v>442</v>
       </c>
       <c r="Y56" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z56" s="2" t="s">
         <v>442</v>
@@ -7060,7 +7041,7 @@
         <v>442</v>
       </c>
       <c r="AB56" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC56" s="2" t="s">
         <v>441</v>
@@ -7075,49 +7056,49 @@
         <v>441</v>
       </c>
       <c r="AG56" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH56" s="3">
-        <v>16682</v>
+        <v>35299</v>
       </c>
     </row>
     <row r="57" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>365</v>
+        <v>145</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>366</v>
+        <v>146</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>362</v>
+        <v>142</v>
       </c>
       <c r="E57" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <f ca="1">DATEDIF(AH57,TODAY(),"Y")</f>
+        <v>10</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>367</v>
+        <v>147</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>368</v>
+        <v>148</v>
       </c>
       <c r="I57" s="3">
-        <v>37190</v>
+        <v>34500</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="K57" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M57" s="2" t="s">
         <v>41</v>
@@ -7126,20 +7107,22 @@
         <v>41</v>
       </c>
       <c r="O57" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P57" s="2" t="s">
-        <v>111</v>
+        <v>77</v>
+      </c>
+      <c r="Q57" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="R57" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="S57" s="2"/>
+        <v>140</v>
+      </c>
       <c r="T57" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U57" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X57" s="2" t="s">
         <v>442</v>
@@ -7172,46 +7155,46 @@
         <v>442</v>
       </c>
       <c r="AH57" s="3">
-        <v>36396</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="58" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>362</v>
+        <v>156</v>
       </c>
       <c r="E58" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <f ca="1">DATEDIF(AH58,TODAY(),"Y")</f>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="I58" s="3">
-        <v>42348</v>
+        <v>39744</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="K58" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M58" s="2" t="s">
         <v>41</v>
@@ -7220,15 +7203,13 @@
         <v>41</v>
       </c>
       <c r="O58" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="2" t="s">
-        <v>375</v>
-      </c>
+      <c r="R58" s="2"/>
       <c r="S58" s="2"/>
       <c r="T58" s="2" t="s">
         <v>441</v>
@@ -7240,7 +7221,7 @@
         <v>442</v>
       </c>
       <c r="Y58" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z58" s="2" t="s">
         <v>442</v>
@@ -7249,7 +7230,7 @@
         <v>442</v>
       </c>
       <c r="AB58" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC58" s="2" t="s">
         <v>441</v>
@@ -7264,49 +7245,49 @@
         <v>441</v>
       </c>
       <c r="AG58" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH58" s="3">
-        <v>39314</v>
+        <v>26174</v>
       </c>
     </row>
     <row r="59" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>361</v>
+        <v>164</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>362</v>
+        <v>156</v>
       </c>
       <c r="E59" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>30</v>
+        <f ca="1">DATEDIF(AH59,TODAY(),"Y")</f>
+        <v>37</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>363</v>
+        <v>165</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="I59" s="3">
-        <v>42026</v>
+        <v>45454</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="K59" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="M59" s="2" t="s">
         <v>41</v>
@@ -7318,12 +7299,12 @@
         <v>64</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="S59" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R59" s="2"/>
       <c r="T59" s="2" t="s">
         <v>441</v>
       </c>
@@ -7346,10 +7327,10 @@
         <v>442</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD59" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE59" s="2" t="s">
         <v>441</v>
@@ -7361,46 +7342,46 @@
         <v>442</v>
       </c>
       <c r="AH59" s="3">
-        <v>34934</v>
+        <v>32379</v>
       </c>
     </row>
     <row r="60" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>374</v>
+        <v>355</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>375</v>
+        <v>172</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>376</v>
+        <v>164</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>362</v>
+        <v>156</v>
       </c>
       <c r="E60" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>47</v>
+        <f ca="1">DATEDIF(AH60,TODAY(),"Y")</f>
+        <v>35</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>377</v>
+        <v>165</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>378</v>
+        <v>173</v>
       </c>
       <c r="I60" s="3">
-        <v>41998</v>
+        <v>32866</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K60" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M60" s="2" t="s">
         <v>41</v>
@@ -7412,9 +7393,11 @@
         <v>64</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q60" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q60" s="2" t="s">
+        <v>356</v>
+      </c>
       <c r="R60" s="2"/>
       <c r="T60" s="2" t="s">
         <v>441</v>
@@ -7435,7 +7418,7 @@
         <v>442</v>
       </c>
       <c r="AB60" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC60" s="2" t="s">
         <v>441</v>
@@ -7453,40 +7436,40 @@
         <v>442</v>
       </c>
       <c r="AH60" s="3">
-        <v>28729</v>
+        <v>33111</v>
       </c>
     </row>
     <row r="61" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>383</v>
+        <v>167</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>384</v>
+        <v>168</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E61" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <f ca="1">DATEDIF(AH61,TODAY(),"Y")</f>
+        <v>32</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>385</v>
+        <v>169</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>386</v>
+        <v>170</v>
       </c>
       <c r="I61" s="3">
-        <v>31364</v>
+        <v>30849</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K61" s="2" t="s">
         <v>441</v>
@@ -7501,24 +7484,21 @@
         <v>41</v>
       </c>
       <c r="O61" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P61" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q61" s="2"/>
-      <c r="R61" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q61" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R61" s="2"/>
       <c r="S61" s="2"/>
       <c r="T61" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U61" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V61" s="2" t="s">
-        <v>174</v>
+        <v>442</v>
       </c>
       <c r="X61" s="2" t="s">
         <v>442</v>
@@ -7533,7 +7513,7 @@
         <v>442</v>
       </c>
       <c r="AB61" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC61" s="2" t="s">
         <v>441</v>
@@ -7548,49 +7528,49 @@
         <v>441</v>
       </c>
       <c r="AG61" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH61" s="3">
-        <v>40409</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="62" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E62" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <f ca="1">DATEDIF(AH62,TODAY(),"Y")</f>
+        <v>30</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="I62" s="3">
-        <v>38219</v>
+        <v>37460</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="K62" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M62" s="2" t="s">
         <v>41</v>
@@ -7602,13 +7582,12 @@
         <v>64</v>
       </c>
       <c r="P62" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q62" s="2"/>
-      <c r="R62" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S62" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q62" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="R62" s="2"/>
       <c r="T62" s="2" t="s">
         <v>441</v>
       </c>
@@ -7628,7 +7607,7 @@
         <v>442</v>
       </c>
       <c r="AB62" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC62" s="2" t="s">
         <v>441</v>
@@ -7646,46 +7625,46 @@
         <v>442</v>
       </c>
       <c r="AH62" s="3">
-        <v>34204</v>
+        <v>34936</v>
       </c>
     </row>
     <row r="63" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>193</v>
+        <v>154</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E63" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f ca="1">DATEDIF(AH63,TODAY(),"Y")</f>
+        <v>30</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>194</v>
+        <v>158</v>
       </c>
       <c r="I63" s="3">
-        <v>39108</v>
+        <v>30488</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K63" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M63" s="2" t="s">
         <v>41</v>
@@ -7694,20 +7673,20 @@
         <v>41</v>
       </c>
       <c r="O63" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q63" s="2"/>
-      <c r="R63" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="S63" s="2"/>
       <c r="T63" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U63" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X63" s="2" t="s">
         <v>442</v>
@@ -7722,7 +7701,7 @@
         <v>442</v>
       </c>
       <c r="AB63" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC63" s="2" t="s">
         <v>441</v>
@@ -7740,46 +7719,46 @@
         <v>442</v>
       </c>
       <c r="AH63" s="3">
-        <v>42234</v>
+        <v>34934</v>
       </c>
     </row>
     <row r="64" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>180</v>
+        <v>355</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="E64" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <f ca="1">DATEDIF(AH64,TODAY(),"Y")</f>
+        <v>28</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="I64" s="3">
-        <v>30854</v>
+        <v>40470</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K64" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M64" s="2" t="s">
         <v>41</v>
@@ -7788,24 +7767,20 @@
         <v>41</v>
       </c>
       <c r="O64" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P64" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q64" s="2"/>
-      <c r="R64" s="2" t="s">
-        <v>181</v>
+      <c r="Q64" s="2" t="s">
+        <v>356</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U64" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="V64" s="2" t="s">
-        <v>153</v>
+        <v>442</v>
       </c>
       <c r="X64" s="2" t="s">
         <v>442</v>
@@ -7820,7 +7795,7 @@
         <v>442</v>
       </c>
       <c r="AB64" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC64" s="2" t="s">
         <v>441</v>
@@ -7838,37 +7813,37 @@
         <v>442</v>
       </c>
       <c r="AH64" s="3">
-        <v>42234</v>
+        <v>35664</v>
       </c>
     </row>
     <row r="65" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>424</v>
+        <v>374</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>210</v>
+        <v>375</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>447</v>
+        <v>376</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>207</v>
+        <v>362</v>
       </c>
       <c r="E65" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <f ca="1">DATEDIF(AH65,TODAY(),"Y")</f>
+        <v>47</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>212</v>
+        <v>377</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>213</v>
+        <v>378</v>
       </c>
       <c r="I65" s="3">
-        <v>35527</v>
+        <v>41998</v>
       </c>
       <c r="J65" s="2" t="s">
         <v>57</v>
@@ -7877,7 +7852,7 @@
         <v>441</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M65" s="2" t="s">
         <v>41</v>
@@ -7886,10 +7861,10 @@
         <v>41</v>
       </c>
       <c r="O65" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P65" s="2" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
@@ -7912,7 +7887,7 @@
         <v>442</v>
       </c>
       <c r="AB65" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC65" s="2" t="s">
         <v>441</v>
@@ -7927,40 +7902,40 @@
         <v>441</v>
       </c>
       <c r="AG65" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH65" s="3">
-        <v>20334</v>
+        <v>28729</v>
       </c>
     </row>
     <row r="66" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>231</v>
+        <v>374</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>431</v>
+        <v>360</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="E66" s="2">
-        <f t="shared" ref="E66:E101" ca="1" si="2">DATEDIF(AH66,TODAY(),"Y")</f>
-        <v>38</v>
+        <f ca="1">DATEDIF(AH66,TODAY(),"Y")</f>
+        <v>30</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>434</v>
+        <v>364</v>
       </c>
       <c r="I66" s="3">
-        <v>30080</v>
+        <v>42026</v>
       </c>
       <c r="J66" s="2" t="s">
         <v>57</v>
@@ -7969,7 +7944,7 @@
         <v>441</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M66" s="2" t="s">
         <v>41</v>
@@ -7978,20 +7953,17 @@
         <v>41</v>
       </c>
       <c r="O66" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>232</v>
+        <v>43</v>
       </c>
       <c r="R66" s="2" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U66" s="2" t="s">
         <v>442</v>
@@ -8027,37 +7999,37 @@
         <v>442</v>
       </c>
       <c r="AH66" s="3">
-        <v>32014</v>
+        <v>34934</v>
       </c>
     </row>
     <row r="67" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>231</v>
+        <v>374</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>233</v>
+        <v>366</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="E67" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <f ca="1">DATEDIF(AH67,TODAY(),"Y")</f>
+        <v>26</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>234</v>
+        <v>367</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="I67" s="3">
-        <v>44717</v>
+        <v>37190</v>
       </c>
       <c r="J67" s="2" t="s">
         <v>57</v>
@@ -8066,7 +8038,7 @@
         <v>441</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M67" s="2" t="s">
         <v>41</v>
@@ -8078,13 +8050,12 @@
         <v>64</v>
       </c>
       <c r="P67" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q67" s="2"/>
-      <c r="R67" s="2"/>
-      <c r="S67" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S67" s="2"/>
       <c r="T67" s="2" t="s">
         <v>441</v>
       </c>
@@ -8104,7 +8075,7 @@
         <v>442</v>
       </c>
       <c r="AB67" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC67" s="2" t="s">
         <v>441</v>
@@ -8119,49 +8090,49 @@
         <v>441</v>
       </c>
       <c r="AG67" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH67" s="3">
-        <v>18874</v>
+        <v>36396</v>
       </c>
     </row>
     <row r="68" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>231</v>
+        <v>374</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>218</v>
+        <v>371</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>219</v>
+        <v>372</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>220</v>
+        <v>362</v>
       </c>
       <c r="E68" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <f ca="1">DATEDIF(AH68,TODAY(),"Y")</f>
+        <v>19</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>221</v>
+        <v>37</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>222</v>
+        <v>373</v>
       </c>
       <c r="I68" s="3">
-        <v>36438</v>
+        <v>35654</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="K68" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="M68" s="2" t="s">
         <v>41</v>
@@ -8170,16 +8141,14 @@
         <v>41</v>
       </c>
       <c r="O68" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P68" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q68" s="2" t="s">
-        <v>232</v>
-      </c>
+      <c r="Q68" s="2"/>
       <c r="R68" s="2" t="s">
-        <v>435</v>
+        <v>375</v>
       </c>
       <c r="T68" s="2" t="s">
         <v>441</v>
@@ -8218,46 +8187,46 @@
         <v>442</v>
       </c>
       <c r="AH68" s="3">
-        <v>37124</v>
+        <v>38949</v>
       </c>
     </row>
     <row r="69" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>72</v>
+        <v>374</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>264</v>
+        <v>366</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="E69" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <f ca="1">DATEDIF(AH69,TODAY(),"Y")</f>
+        <v>18</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>268</v>
+        <v>370</v>
       </c>
       <c r="I69" s="3">
-        <v>42665</v>
+        <v>42348</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K69" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="M69" s="2" t="s">
         <v>41</v>
@@ -8266,16 +8235,16 @@
         <v>41</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="Q69" s="2"/>
-      <c r="R69" s="2"/>
-      <c r="S69" s="2" t="s">
-        <v>65</v>
-      </c>
+      <c r="R69" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="S69" s="2"/>
       <c r="T69" s="2" t="s">
         <v>441</v>
       </c>
@@ -8313,40 +8282,40 @@
         <v>442</v>
       </c>
       <c r="AH69" s="3">
-        <v>26904</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="70" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>72</v>
+        <v>180</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>181</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>83</v>
+        <v>182</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>67</v>
+        <v>177</v>
       </c>
       <c r="E70" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <f ca="1">DATEDIF(AH70,TODAY(),"Y")</f>
+        <v>75</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="I70" s="3">
-        <v>43399</v>
+        <v>31574</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K70" s="2" t="s">
         <v>441</v>
@@ -8364,14 +8333,10 @@
         <v>64</v>
       </c>
       <c r="P70" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="R70" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
       <c r="T70" s="2" t="s">
         <v>441</v>
       </c>
@@ -8409,37 +8374,37 @@
         <v>442</v>
       </c>
       <c r="AH70" s="3">
-        <v>34207</v>
+        <v>18509</v>
       </c>
     </row>
     <row r="71" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>389</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="E71" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <f ca="1">DATEDIF(AH71,TODAY(),"Y")</f>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>93</v>
+        <v>183</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>94</v>
+        <v>390</v>
       </c>
       <c r="I71" s="3">
-        <v>45153</v>
+        <v>34618</v>
       </c>
       <c r="J71" s="2" t="s">
         <v>89</v>
@@ -8448,7 +8413,7 @@
         <v>441</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M71" s="2" t="s">
         <v>41</v>
@@ -8464,9 +8429,8 @@
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S71" s="2"/>
+        <v>181</v>
+      </c>
       <c r="T71" s="2" t="s">
         <v>441</v>
       </c>
@@ -8504,37 +8468,37 @@
         <v>442</v>
       </c>
       <c r="AH71" s="3">
-        <v>26904</v>
+        <v>25079</v>
       </c>
     </row>
     <row r="72" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>272</v>
+        <v>391</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>91</v>
+        <v>392</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="E72" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <f ca="1">DATEDIF(AH72,TODAY(),"Y")</f>
+        <v>55</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>93</v>
+        <v>393</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>273</v>
+        <v>394</v>
       </c>
       <c r="I72" s="3">
-        <v>30675</v>
+        <v>40723</v>
       </c>
       <c r="J72" s="2" t="s">
         <v>89</v>
@@ -8543,7 +8507,7 @@
         <v>441</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M72" s="2" t="s">
         <v>41</v>
@@ -8557,10 +8521,10 @@
       <c r="P72" s="2" t="s">
         <v>77</v>
       </c>
+      <c r="Q72" s="2"/>
       <c r="R72" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="S72" s="2"/>
+        <v>181</v>
+      </c>
       <c r="T72" s="2" t="s">
         <v>441</v>
       </c>
@@ -8598,37 +8562,37 @@
         <v>442</v>
       </c>
       <c r="AH72" s="3">
-        <v>29824</v>
+        <v>25811</v>
       </c>
     </row>
     <row r="73" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>274</v>
+        <v>180</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>100</v>
+        <v>189</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>91</v>
+        <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="E73" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <f ca="1">DATEDIF(AH73,TODAY(),"Y")</f>
+        <v>36</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>101</v>
+        <v>192</v>
       </c>
       <c r="I73" s="3">
-        <v>43892</v>
+        <v>31472</v>
       </c>
       <c r="J73" s="2" t="s">
         <v>89</v>
@@ -8637,7 +8601,7 @@
         <v>441</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M73" s="2" t="s">
         <v>41</v>
@@ -8653,7 +8617,7 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" s="2" t="s">
-        <v>275</v>
+        <v>181</v>
       </c>
       <c r="T73" s="2" t="s">
         <v>441</v>
@@ -8692,46 +8656,46 @@
         <v>442</v>
       </c>
       <c r="AH73" s="3">
-        <v>39314</v>
+        <v>32744</v>
       </c>
     </row>
     <row r="74" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>185</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>103</v>
+        <v>186</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>177</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>41</v>
+        <f ca="1">DATEDIF(AH74,TODAY(),"Y")</f>
+        <v>32</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="I74" s="3">
-        <v>30409</v>
+        <v>38219</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K74" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>41</v>
@@ -8743,13 +8707,11 @@
         <v>64</v>
       </c>
       <c r="P74" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>277</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="Q74" s="2"/>
       <c r="R74" s="2" t="s">
-        <v>283</v>
+        <v>181</v>
       </c>
       <c r="S74" s="2"/>
       <c r="T74" s="2" t="s">
@@ -8771,7 +8733,7 @@
         <v>442</v>
       </c>
       <c r="AB74" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC74" s="2" t="s">
         <v>441</v>
@@ -8789,37 +8751,37 @@
         <v>442</v>
       </c>
       <c r="AH74" s="3">
-        <v>30919</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="75" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>379</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>118</v>
+        <v>380</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E75" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <f ca="1">DATEDIF(AH75,TODAY(),"Y")</f>
+        <v>18</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>120</v>
+        <v>381</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>121</v>
+        <v>382</v>
       </c>
       <c r="I75" s="3">
-        <v>34753</v>
+        <v>44584</v>
       </c>
       <c r="J75" s="2" t="s">
         <v>89</v>
@@ -8828,7 +8790,7 @@
         <v>441</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M75" s="2" t="s">
         <v>41</v>
@@ -8837,14 +8799,17 @@
         <v>41</v>
       </c>
       <c r="O75" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P75" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="S75" s="2"/>
       <c r="T75" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U75" s="2" t="s">
         <v>442</v>
@@ -8862,7 +8827,7 @@
         <v>442</v>
       </c>
       <c r="AB75" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC75" s="2" t="s">
         <v>441</v>
@@ -8880,40 +8845,40 @@
         <v>442</v>
       </c>
       <c r="AH75" s="3">
-        <v>23984</v>
+        <v>39314</v>
       </c>
     </row>
     <row r="76" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>298</v>
+        <v>384</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E76" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>43</v>
+        <f ca="1">DATEDIF(AH76,TODAY(),"Y")</f>
+        <v>15</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>299</v>
+        <v>385</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>302</v>
+        <v>386</v>
       </c>
       <c r="I76" s="3">
-        <v>39266</v>
+        <v>31364</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K76" s="2" t="s">
         <v>441</v>
@@ -8928,20 +8893,24 @@
         <v>41</v>
       </c>
       <c r="O76" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P76" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q76" s="2"/>
       <c r="R76" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="S76" s="2"/>
       <c r="T76" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U76" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V76" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="X76" s="2" t="s">
         <v>442</v>
@@ -8971,40 +8940,40 @@
         <v>441</v>
       </c>
       <c r="AG76" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH76" s="3">
-        <v>30189</v>
+        <v>40409</v>
       </c>
     </row>
     <row r="77" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>180</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>122</v>
+        <v>387</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <f ca="1">DATEDIF(AH77,TODAY(),"Y")</f>
+        <v>15</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>124</v>
+        <v>178</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>125</v>
+        <v>388</v>
       </c>
       <c r="I77" s="3">
-        <v>35733</v>
+        <v>45309</v>
       </c>
       <c r="J77" s="2" t="s">
         <v>89</v>
@@ -9013,7 +8982,7 @@
         <v>441</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M77" s="2" t="s">
         <v>41</v>
@@ -9029,8 +8998,9 @@
       </c>
       <c r="Q77" s="2"/>
       <c r="R77" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="S77" s="2"/>
       <c r="T77" s="2" t="s">
         <v>441</v>
       </c>
@@ -9068,46 +9038,46 @@
         <v>442</v>
       </c>
       <c r="AH77" s="3">
-        <v>42234</v>
+        <v>40409</v>
       </c>
     </row>
     <row r="78" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>131</v>
+        <v>180</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>133</v>
+        <v>186</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>128</v>
+        <v>177</v>
       </c>
       <c r="E78" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <f ca="1">DATEDIF(AH78,TODAY(),"Y")</f>
+        <v>10</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>134</v>
+        <v>187</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="I78" s="3">
-        <v>38881</v>
+        <v>39108</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K78" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M78" s="2" t="s">
         <v>41</v>
@@ -9116,19 +9086,20 @@
         <v>41</v>
       </c>
       <c r="O78" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P78" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
+      <c r="R78" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="T78" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U78" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="X78" s="2" t="s">
         <v>442</v>
@@ -9143,7 +9114,7 @@
         <v>442</v>
       </c>
       <c r="AB78" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC78" s="2" t="s">
         <v>441</v>
@@ -9161,46 +9132,46 @@
         <v>442</v>
       </c>
       <c r="AH78" s="3">
-        <v>19239</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="79" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>355</v>
+        <v>180</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="E79" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <f ca="1">DATEDIF(AH79,TODAY(),"Y")</f>
+        <v>10</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="I79" s="3">
-        <v>40470</v>
+        <v>30854</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="K79" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="M79" s="2" t="s">
         <v>41</v>
@@ -9209,20 +9180,24 @@
         <v>41</v>
       </c>
       <c r="O79" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P79" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q79" s="2" t="s">
-        <v>356</v>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="S79" s="2"/>
       <c r="T79" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U79" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V79" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="X79" s="2" t="s">
         <v>442</v>
@@ -9237,7 +9212,7 @@
         <v>442</v>
       </c>
       <c r="AB79" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC79" s="2" t="s">
         <v>441</v>
@@ -9255,46 +9230,46 @@
         <v>442</v>
       </c>
       <c r="AH79" s="3">
-        <v>35664</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="80" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>167</v>
+        <v>401</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>168</v>
+        <v>402</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>156</v>
+        <v>398</v>
       </c>
       <c r="E80" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <f ca="1">DATEDIF(AH80,TODAY(),"Y")</f>
+        <v>68</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>170</v>
+        <v>403</v>
       </c>
       <c r="I80" s="3">
-        <v>30849</v>
+        <v>31435</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="K80" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M80" s="2" t="s">
         <v>41</v>
@@ -9306,15 +9281,13 @@
         <v>42</v>
       </c>
       <c r="P80" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q80" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="R80" s="2"/>
-      <c r="S80" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="S80" s="2" t="s">
+        <v>395</v>
+      </c>
       <c r="T80" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U80" s="2" t="s">
         <v>442</v>
@@ -9329,67 +9302,67 @@
         <v>442</v>
       </c>
       <c r="AA80" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AB80" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AC80" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD80" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE80" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF80" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG80" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH80" s="3">
-        <v>34204</v>
+        <v>21064</v>
       </c>
     </row>
     <row r="81" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>355</v>
+        <v>400</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>172</v>
+        <v>396</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>164</v>
+        <v>397</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>156</v>
+        <v>398</v>
       </c>
       <c r="E81" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>35</v>
+        <f ca="1">DATEDIF(AH81,TODAY(),"Y")</f>
+        <v>25</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>173</v>
+        <v>399</v>
       </c>
       <c r="I81" s="3">
-        <v>32866</v>
+        <v>30431</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>89</v>
+        <v>244</v>
       </c>
       <c r="K81" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M81" s="2" t="s">
         <v>41</v>
@@ -9398,15 +9371,17 @@
         <v>41</v>
       </c>
       <c r="O81" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P81" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q81" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="R81" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="S81" s="2" t="s">
+        <v>400</v>
+      </c>
       <c r="T81" s="2" t="s">
         <v>441</v>
       </c>
@@ -9414,7 +9389,7 @@
         <v>442</v>
       </c>
       <c r="X81" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Y81" s="2" t="s">
         <v>442</v>
@@ -9426,55 +9401,55 @@
         <v>442</v>
       </c>
       <c r="AB81" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC81" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AD81" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AE81" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AF81" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AG81" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH81" s="3">
-        <v>33111</v>
+        <v>36759</v>
       </c>
     </row>
     <row r="82" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>355</v>
+        <v>201</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>155</v>
+        <v>446</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="E82" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <f ca="1">DATEDIF(AH82,TODAY(),"Y")</f>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>157</v>
+        <v>203</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="I82" s="3">
-        <v>30488</v>
+        <v>32385</v>
       </c>
       <c r="J82" s="2" t="s">
         <v>89</v>
@@ -9483,7 +9458,7 @@
         <v>441</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M82" s="2" t="s">
         <v>41</v>
@@ -9495,14 +9470,15 @@
         <v>42</v>
       </c>
       <c r="P82" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q82" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="S82" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2" t="s">
+        <v>416</v>
+      </c>
       <c r="T82" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U82" s="2" t="s">
         <v>442</v>
@@ -9538,46 +9514,46 @@
         <v>442</v>
       </c>
       <c r="AH82" s="3">
-        <v>34934</v>
+        <v>19604</v>
       </c>
     </row>
     <row r="83" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>374</v>
+        <v>201</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>362</v>
+        <v>197</v>
       </c>
       <c r="E83" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <f ca="1">DATEDIF(AH83,TODAY(),"Y")</f>
+        <v>70</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>37</v>
+        <v>418</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="I83" s="3">
-        <v>35654</v>
+        <v>45226</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K83" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M83" s="2" t="s">
         <v>41</v>
@@ -9586,14 +9562,15 @@
         <v>41</v>
       </c>
       <c r="O83" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P83" s="2" t="s">
-        <v>77</v>
+        <v>43</v>
       </c>
       <c r="Q83" s="2"/>
-      <c r="R83" s="2" t="s">
-        <v>375</v>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2" t="s">
+        <v>202</v>
       </c>
       <c r="T83" s="2" t="s">
         <v>441</v>
@@ -9632,37 +9609,37 @@
         <v>442</v>
       </c>
       <c r="AH83" s="3">
-        <v>38949</v>
+        <v>20334</v>
       </c>
     </row>
     <row r="84" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E84" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <f ca="1">DATEDIF(AH84,TODAY(),"Y")</f>
+        <v>59</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="I84" s="3">
-        <v>40723</v>
+        <v>34791</v>
       </c>
       <c r="J84" s="2" t="s">
         <v>89</v>
@@ -9671,7 +9648,7 @@
         <v>441</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="M84" s="2" t="s">
         <v>41</v>
@@ -9683,14 +9660,17 @@
         <v>64</v>
       </c>
       <c r="P84" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q84" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q84" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="R84" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="S84" s="2"/>
       <c r="T84" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U84" s="2" t="s">
         <v>442</v>
@@ -9708,7 +9688,7 @@
         <v>442</v>
       </c>
       <c r="AB84" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC84" s="2" t="s">
         <v>441</v>
@@ -9726,46 +9706,46 @@
         <v>442</v>
       </c>
       <c r="AH84" s="3">
-        <v>25811</v>
+        <v>24351</v>
       </c>
     </row>
     <row r="85" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>379</v>
+        <v>195</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>380</v>
+        <v>196</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E85" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <f ca="1">DATEDIF(AH85,TODAY(),"Y")</f>
+        <v>57</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>381</v>
+        <v>198</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>382</v>
+        <v>199</v>
       </c>
       <c r="I85" s="3">
-        <v>44584</v>
+        <v>33437</v>
       </c>
       <c r="J85" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K85" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="M85" s="2" t="s">
         <v>41</v>
@@ -9779,12 +9759,14 @@
       <c r="P85" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="Q85" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="R85" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="S85" s="2"/>
+        <v>416</v>
+      </c>
       <c r="T85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U85" s="2" t="s">
         <v>442</v>
@@ -9793,7 +9775,7 @@
         <v>442</v>
       </c>
       <c r="Y85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z85" s="2" t="s">
         <v>442</v>
@@ -9817,40 +9799,40 @@
         <v>441</v>
       </c>
       <c r="AG85" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH85" s="3">
-        <v>39314</v>
+        <v>25082</v>
       </c>
     </row>
     <row r="86" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E86" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <f ca="1">DATEDIF(AH86,TODAY(),"Y")</f>
+        <v>47</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>388</v>
+        <v>415</v>
       </c>
       <c r="I86" s="3">
-        <v>45309</v>
+        <v>36092</v>
       </c>
       <c r="J86" s="2" t="s">
         <v>89</v>
@@ -9859,7 +9841,7 @@
         <v>441</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="M86" s="2" t="s">
         <v>41</v>
@@ -9871,18 +9853,20 @@
         <v>64</v>
       </c>
       <c r="P86" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q86" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="R86" s="2" t="s">
-        <v>181</v>
+        <v>416</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86" s="2" t="s">
         <v>441</v>
       </c>
       <c r="U86" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="X86" s="2" t="s">
         <v>442</v>
@@ -9897,7 +9881,7 @@
         <v>442</v>
       </c>
       <c r="AB86" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC86" s="2" t="s">
         <v>441</v>
@@ -9915,46 +9899,46 @@
         <v>442</v>
       </c>
       <c r="AH86" s="3">
-        <v>40409</v>
+        <v>28729</v>
       </c>
     </row>
     <row r="87" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>189</v>
+        <v>404</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>190</v>
+        <v>405</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="E87" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <f ca="1">DATEDIF(AH87,TODAY(),"Y")</f>
+        <v>33</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>36</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>191</v>
+        <v>406</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>192</v>
+        <v>407</v>
       </c>
       <c r="I87" s="3">
-        <v>31472</v>
+        <v>43759</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K87" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="M87" s="2" t="s">
         <v>41</v>
@@ -9968,10 +9952,13 @@
       <c r="P87" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="Q87" s="2"/>
+      <c r="Q87" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="R87" s="2" t="s">
-        <v>181</v>
-      </c>
+        <v>416</v>
+      </c>
+      <c r="S87" s="2"/>
       <c r="T87" s="2" t="s">
         <v>441</v>
       </c>
@@ -10009,46 +9996,46 @@
         <v>442</v>
       </c>
       <c r="AH87" s="3">
-        <v>32744</v>
+        <v>33839</v>
       </c>
     </row>
     <row r="88" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>180</v>
+        <v>424</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>182</v>
+        <v>447</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="E88" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">DATEDIF(AH88,TODAY(),"Y")</f>
+        <v>70</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I88" s="3">
+        <v>35527</v>
+      </c>
+      <c r="J88" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F88" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="I88" s="3">
-        <v>34618</v>
-      </c>
-      <c r="J88" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="K88" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>41</v>
@@ -10057,15 +10044,13 @@
         <v>41</v>
       </c>
       <c r="O88" s="2" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="P88" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Q88" s="2"/>
-      <c r="R88" s="2" t="s">
-        <v>181</v>
-      </c>
+      <c r="R88" s="2"/>
       <c r="T88" s="2" t="s">
         <v>441</v>
       </c>
@@ -10085,7 +10070,7 @@
         <v>442</v>
       </c>
       <c r="AB88" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC88" s="2" t="s">
         <v>441</v>
@@ -10100,49 +10085,49 @@
         <v>441</v>
       </c>
       <c r="AG88" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH88" s="3">
-        <v>25079</v>
+        <v>20334</v>
       </c>
     </row>
     <row r="89" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>201</v>
+        <v>424</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>202</v>
+        <v>425</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>446</v>
+        <v>211</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E89" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>72</v>
+        <f ca="1">DATEDIF(AH89,TODAY(),"Y")</f>
+        <v>58</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>204</v>
+        <v>426</v>
       </c>
       <c r="I89" s="3">
-        <v>32385</v>
+        <v>41852</v>
       </c>
       <c r="J89" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K89" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="M89" s="2" t="s">
         <v>41</v>
@@ -10151,16 +10136,15 @@
         <v>41</v>
       </c>
       <c r="O89" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P89" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q89" s="2"/>
+        <v>52</v>
+      </c>
+      <c r="Q89" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="R89" s="2"/>
-      <c r="S89" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="T89" s="2" t="s">
         <v>441</v>
       </c>
@@ -10198,46 +10182,46 @@
         <v>442</v>
       </c>
       <c r="AH89" s="3">
-        <v>19604</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="90" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>201</v>
+        <v>424</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>412</v>
+        <v>205</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>413</v>
+        <v>206</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E90" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>47</v>
+        <f ca="1">DATEDIF(AH90,TODAY(),"Y")</f>
+        <v>32</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>414</v>
+        <v>208</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>415</v>
+        <v>209</v>
       </c>
       <c r="I90" s="3">
-        <v>36092</v>
+        <v>44131</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K90" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M90" s="2" t="s">
         <v>41</v>
@@ -10252,14 +10236,11 @@
         <v>52</v>
       </c>
       <c r="Q90" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="R90" s="2" t="s">
-        <v>416</v>
+        <v>210</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U90" s="2" t="s">
         <v>442</v>
@@ -10268,7 +10249,7 @@
         <v>442</v>
       </c>
       <c r="Y90" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z90" s="2" t="s">
         <v>442</v>
@@ -10292,49 +10273,49 @@
         <v>441</v>
       </c>
       <c r="AG90" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH90" s="3">
-        <v>28729</v>
+        <v>34204</v>
       </c>
     </row>
     <row r="91" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>201</v>
+        <v>424</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>408</v>
+        <v>214</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>409</v>
+        <v>215</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E91" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <f ca="1">DATEDIF(AH91,TODAY(),"Y")</f>
+        <v>21</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>410</v>
+        <v>216</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>411</v>
+        <v>217</v>
       </c>
       <c r="I91" s="3">
-        <v>34791</v>
+        <v>44441</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>89</v>
+        <v>49</v>
       </c>
       <c r="K91" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="M91" s="2" t="s">
         <v>41</v>
@@ -10349,14 +10330,11 @@
         <v>52</v>
       </c>
       <c r="Q91" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="R91" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="S91" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="R91" s="2"/>
       <c r="T91" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U91" s="2" t="s">
         <v>442</v>
@@ -10392,46 +10370,46 @@
         <v>442</v>
       </c>
       <c r="AH91" s="3">
-        <v>24351</v>
+        <v>38219</v>
       </c>
     </row>
     <row r="92" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>231</v>
+        <v>424</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>236</v>
+        <v>420</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>237</v>
+        <v>421</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="E92" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>38</v>
+        <f ca="1">DATEDIF(AH92,TODAY(),"Y")</f>
+        <v>10</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>238</v>
+        <v>422</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>239</v>
+        <v>423</v>
       </c>
       <c r="I92" s="3">
-        <v>29601</v>
+        <v>32379</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="K92" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="M92" s="2" t="s">
         <v>41</v>
@@ -10440,28 +10418,30 @@
         <v>41</v>
       </c>
       <c r="O92" s="2" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="P92" s="2" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="Q92" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="R92" s="2" t="s">
-        <v>435</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
       <c r="T92" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U92" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V92" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>442</v>
       </c>
       <c r="Y92" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z92" s="2" t="s">
         <v>442</v>
@@ -10470,7 +10450,7 @@
         <v>442</v>
       </c>
       <c r="AB92" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC92" s="2" t="s">
         <v>441</v>
@@ -10485,49 +10465,49 @@
         <v>441</v>
       </c>
       <c r="AG92" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH92" s="3">
-        <v>32014</v>
+        <v>42234</v>
       </c>
     </row>
     <row r="93" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>58</v>
+        <v>231</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>35</v>
+        <v>220</v>
       </c>
       <c r="E93" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <f ca="1">DATEDIF(AH93,TODAY(),"Y")</f>
+        <v>74</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="I93" s="3">
-        <v>33341</v>
+        <v>44717</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="K93" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="M93" s="2" t="s">
         <v>41</v>
@@ -10539,15 +10519,13 @@
         <v>64</v>
       </c>
       <c r="P93" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q93" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="R93" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="S93" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="T93" s="2" t="s">
         <v>441</v>
       </c>
@@ -10567,10 +10545,10 @@
         <v>442</v>
       </c>
       <c r="AB93" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC93" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD93" s="2" t="s">
         <v>441</v>
@@ -10579,52 +10557,52 @@
         <v>441</v>
       </c>
       <c r="AF93" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG93" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH93" s="3">
-        <v>37489</v>
+        <v>18874</v>
       </c>
     </row>
     <row r="94" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>297</v>
+        <v>435</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>298</v>
+        <v>436</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="E94" s="2">
-        <f t="shared" ca="1" si="2"/>
+        <f ca="1">DATEDIF(AH94,TODAY(),"Y")</f>
+        <v>70</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>299</v>
+        <v>437</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>300</v>
+        <v>438</v>
       </c>
       <c r="I94" s="3">
-        <v>30165</v>
+        <v>33248</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="K94" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>41</v>
@@ -10633,17 +10611,18 @@
         <v>41</v>
       </c>
       <c r="O94" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="P94" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="R94" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="S94" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="T94" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U94" s="2" t="s">
         <v>442</v>
@@ -10661,64 +10640,64 @@
         <v>442</v>
       </c>
       <c r="AB94" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC94" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD94" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AE94" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF94" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG94" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH94" s="3">
-        <v>32744</v>
+        <v>20334</v>
       </c>
     </row>
     <row r="95" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>231</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>307</v>
+        <v>227</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>308</v>
+        <v>228</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="E95" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>27</v>
+        <f ca="1">DATEDIF(AH95,TODAY(),"Y")</f>
+        <v>67</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>309</v>
+        <v>230</v>
       </c>
       <c r="I95" s="3">
-        <v>30724</v>
+        <v>36783</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="K95" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="M95" s="2" t="s">
         <v>41</v>
@@ -10727,15 +10706,18 @@
         <v>41</v>
       </c>
       <c r="O95" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="P95" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q95" s="2"/>
+      <c r="Q95" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="R95" s="2" t="s">
-        <v>117</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="S95" s="2"/>
       <c r="T95" s="2" t="s">
         <v>441</v>
       </c>
@@ -10746,7 +10728,7 @@
         <v>442</v>
       </c>
       <c r="Y95" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z95" s="2" t="s">
         <v>442</v>
@@ -10755,16 +10737,16 @@
         <v>442</v>
       </c>
       <c r="AB95" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC95" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD95" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE95" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF95" s="2" t="s">
         <v>441</v>
@@ -10773,46 +10755,46 @@
         <v>442</v>
       </c>
       <c r="AH95" s="3">
-        <v>36029</v>
+        <v>21429</v>
       </c>
     </row>
     <row r="96" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>324</v>
+        <v>427</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="E96" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>48</v>
+        <f ca="1">DATEDIF(AH96,TODAY(),"Y")</f>
+        <v>58</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>326</v>
+        <v>429</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>327</v>
+        <v>430</v>
       </c>
       <c r="I96" s="3">
-        <v>41691</v>
+        <v>43027</v>
       </c>
       <c r="J96" s="2" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="K96" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="M96" s="2" t="s">
         <v>41</v>
@@ -10821,17 +10803,20 @@
         <v>41</v>
       </c>
       <c r="O96" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P96" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q96" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R96" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="S96" s="2"/>
       <c r="T96" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U96" s="2" t="s">
         <v>442</v>
@@ -10849,64 +10834,64 @@
         <v>442</v>
       </c>
       <c r="AB96" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AC96" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD96" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE96" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF96" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG96" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH96" s="3">
-        <v>28364</v>
+        <v>24714</v>
       </c>
     </row>
     <row r="97" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>321</v>
+        <v>432</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>128</v>
+        <v>220</v>
       </c>
       <c r="E97" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>60</v>
+        <f ca="1">DATEDIF(AH97,TODAY(),"Y")</f>
+        <v>38</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>322</v>
+        <v>433</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>323</v>
+        <v>434</v>
       </c>
       <c r="I97" s="3">
-        <v>34208</v>
+        <v>30080</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="K97" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M97" s="2" t="s">
         <v>41</v>
@@ -10915,18 +10900,20 @@
         <v>41</v>
       </c>
       <c r="O97" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P97" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q97" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="R97" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="R97" s="2" t="s">
+        <v>435</v>
+      </c>
       <c r="S97" s="2"/>
       <c r="T97" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="U97" s="2" t="s">
         <v>442</v>
@@ -10935,10 +10922,10 @@
         <v>442</v>
       </c>
       <c r="Y97" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Z97" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA97" s="2" t="s">
         <v>442</v>
@@ -10947,61 +10934,61 @@
         <v>442</v>
       </c>
       <c r="AC97" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD97" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE97" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF97" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG97" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH97" s="3">
-        <v>23984</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="98" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>345</v>
+        <v>231</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>332</v>
+        <v>236</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>142</v>
+        <v>220</v>
       </c>
       <c r="E98" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <f ca="1">DATEDIF(AH98,TODAY(),"Y")</f>
+        <v>38</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>334</v>
+        <v>238</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>335</v>
+        <v>239</v>
       </c>
       <c r="I98" s="3">
-        <v>39712</v>
+        <v>29601</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="K98" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M98" s="2" t="s">
         <v>41</v>
@@ -11010,13 +10997,16 @@
         <v>41</v>
       </c>
       <c r="O98" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P98" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S98" s="2" t="s">
-        <v>140</v>
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R98" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="T98" s="2" t="s">
         <v>441</v>
@@ -11040,55 +11030,55 @@
         <v>442</v>
       </c>
       <c r="AC98" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD98" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE98" s="2" t="s">
         <v>441</v>
       </c>
       <c r="AF98" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG98" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH98" s="3">
-        <v>23251</v>
+        <v>32014</v>
       </c>
     </row>
     <row r="99" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>355</v>
+        <v>231</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>353</v>
+        <v>223</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="E99" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>37</v>
+        <f ca="1">DATEDIF(AH99,TODAY(),"Y")</f>
+        <v>28</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>354</v>
+        <v>226</v>
       </c>
       <c r="I99" s="3">
-        <v>45454</v>
+        <v>41194</v>
       </c>
       <c r="J99" s="2" t="s">
-        <v>244</v>
+        <v>49</v>
       </c>
       <c r="K99" s="2" t="s">
         <v>441</v>
@@ -11103,15 +11093,18 @@
         <v>41</v>
       </c>
       <c r="O99" s="2" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="P99" s="2" t="s">
         <v>52</v>
       </c>
       <c r="Q99" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="R99" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="R99" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="S99" s="2"/>
       <c r="T99" s="2" t="s">
         <v>441</v>
       </c>
@@ -11131,13 +11124,13 @@
         <v>442</v>
       </c>
       <c r="AB99" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC99" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD99" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE99" s="2" t="s">
         <v>441</v>
@@ -11149,46 +11142,46 @@
         <v>442</v>
       </c>
       <c r="AH99" s="3">
-        <v>32379</v>
+        <v>35664</v>
       </c>
     </row>
     <row r="100" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>400</v>
+        <v>231</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>396</v>
+        <v>218</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>397</v>
+        <v>219</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>398</v>
+        <v>220</v>
       </c>
       <c r="E100" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <f ca="1">DATEDIF(AH100,TODAY(),"Y")</f>
+        <v>24</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>61</v>
+        <v>221</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="I100" s="3">
-        <v>30431</v>
+        <v>36438</v>
       </c>
       <c r="J100" s="2" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="K100" s="2" t="s">
         <v>441</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="M100" s="2" t="s">
         <v>41</v>
@@ -11197,16 +11190,16 @@
         <v>41</v>
       </c>
       <c r="O100" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="P100" s="2" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="Q100" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="S100" s="2" t="s">
-        <v>400</v>
+        <v>232</v>
+      </c>
+      <c r="R100" s="2" t="s">
+        <v>435</v>
       </c>
       <c r="T100" s="2" t="s">
         <v>441</v>
@@ -11215,7 +11208,7 @@
         <v>442</v>
       </c>
       <c r="X100" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="Y100" s="2" t="s">
         <v>442</v>
@@ -11230,55 +11223,55 @@
         <v>442</v>
       </c>
       <c r="AC100" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD100" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE100" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF100" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG100" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AH100" s="3">
-        <v>36759</v>
+        <v>37124</v>
       </c>
     </row>
     <row r="101" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>400</v>
+        <v>231</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>402</v>
+        <v>228</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>398</v>
+        <v>220</v>
       </c>
       <c r="E101" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <f ca="1">DATEDIF(AH101,TODAY(),"Y")</f>
+        <v>14</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>47</v>
+        <v>229</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>403</v>
+        <v>440</v>
       </c>
       <c r="I101" s="3">
-        <v>31435</v>
+        <v>35236</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>244</v>
+        <v>39</v>
       </c>
       <c r="K101" s="2" t="s">
         <v>441</v>
@@ -11296,49 +11289,56 @@
         <v>42</v>
       </c>
       <c r="P101" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="S101" s="2" t="s">
-        <v>395</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="R101" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="S101" s="2"/>
       <c r="T101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="U101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
+      </c>
+      <c r="V101" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="X101" s="2" t="s">
         <v>442</v>
       </c>
       <c r="Y101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="Z101" s="2" t="s">
         <v>442</v>
       </c>
       <c r="AA101" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AB101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AC101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AD101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AE101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AF101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AG101" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AH101" s="3">
-        <v>21064</v>
+        <v>40774</v>
       </c>
     </row>
     <row r="102" spans="1:34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -12247,7 +12247,9 @@
   </sheetData>
   <autoFilter ref="A1:AH102" xr:uid="{00000000-0001-0000-0100-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AH102">
-      <sortCondition ref="J1:J102"/>
+      <sortCondition ref="D2:D102"/>
+      <sortCondition descending="1" ref="E2:E102"/>
+      <sortCondition descending="1" ref="F2:F102"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -12259,8 +12261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42348EBB-4DB1-42D9-ABC6-98C49A1C08BB}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L11" sqref="A1:L11"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
